--- a/testing/testcases.xlsx
+++ b/testing/testcases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g6t6\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA744FF-8C8F-43DA-98BF-2A84B891696E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374D37F-5003-4959-AAB1-D3BC55EE82B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration1-Manual-Login" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration2-Manual-Bootstrap-Bid" sheetId="2" r:id="rId2"/>
-    <sheet name="Iteration3-Manual-Function_test" sheetId="4" r:id="rId3"/>
+    <sheet name="Iteration2-JSON-Bootstrap Bid" sheetId="5" r:id="rId3"/>
+    <sheet name="Iteration3-Manual-Function_test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="368">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -562,12 +563,6 @@
 course:IS209
 section:S1
 bid amount:20</t>
-  </si>
-  <si>
-    <t>1) Key in "gary.ng.2009" in username field 2) Key in "qwerty134" in password field 3) Click Login 4) Key in Course: IS209, Section: S1 5) Key in e$:20 6) Click Add a Bid.</t>
-  </si>
-  <si>
-    <t>Bid accepted'</t>
   </si>
   <si>
     <t>Bidding(drop bid)</t>
@@ -1296,6 +1291,349 @@
 3) Click Login
 4) Select Course: IS100, Section: S1
 5) Click Drop a section.</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>{
+ "status": "success"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["invalid section"]
+}</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009 password:qwerty129  course: IS1111 section:S1 
+bid amount:20</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["invalid course"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["class timetable clash"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["exam timetable clash"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["course completed"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["incomplete prerequisites"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["insufficient e$"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["section limit reached"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["invalid amount"]
+}</t>
+  </si>
+  <si>
+    <t>{
+ "status": "error",
+ "message":["not own school course"]
+}</t>
+  </si>
+  <si>
+    <t>rows successfully loaded for each files
+student.csv 26
+course.csv24
+section.csv35
+prerequisite.csv 8
+course_completed.csv 4
+bid.csv : 11</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+student.csv: 26
+course.csv: 24
+section.csv:35
+prerequisite.csv:8
+course_completed.csv:4
+bid.csv:11</t>
+  </si>
+  <si>
+    <t>rows loaded:
+student.csv :0
+course.csv :0
+section.csv:0
+prerequisite.csv:0
+course_completed.csv :0
+Error Message: File not found</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+student.csv: 0
+course.csv: 0
+section.csv:0
+prerequisite.csv:0
+course_completed.csv:0
+bid.csv:0 
+No correct error messages display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the student csv file is not loaded successfully  with duplicate userid, incorrect e-dollar amount, empty password and userid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rows loaded for student csv: 20
+-row2 : 'blank password';
+-row3 : 'invalid userid' [exceed 128 characters];
+-row4 : 'invalid password' [exceed 128 characters];
+-row5 : 'invalid name'[exceed 100 characters] , 'invalid e-dollar'[value with more than 2 decimals];
+-row6 : 'invalid e-dollar'[negative value];
+-row28 : 'duplicate userid' [two same userid];
+-row20 : 'blank userid','blank name','blank school','blank edollar';
+</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+student.csv: 20
+Errors: 
+line2 - 'blank password';
+line3 - 'invalid userid';
+line4 - 'invalid password';
+line5 - 'invalid e-dollar','invalid name';
+line6 - 'invalid e-dollar';
+line20 - 'blank userid, name, school, edollar';
+line28 - 'duplicate userid';</t>
+  </si>
+  <si>
+    <t>Validate that the course csv file is not loaded successfully as exam date, exam start and end time are written in an incorrect format, one course description filed exceed 100 characters and one course title exceed 100 characters. File has empty  field and exam end time is  not later than the exam start time.</t>
+  </si>
+  <si>
+    <t>row loaded successfully for course.csv:16
+-row 2: 'invalid exam date', 'invalid exam start','invalid exam end'[incorrect format];
+-row 3: 'invalid title', 'invalid description'[exceed 100 characters];
+-row 4: 'invalid description'[exceed 100 characters];
+-row 5: 'invalid exam end' [exam start time is later than end time]
+-row 6: 'invalid exam date'[incorrect format];
+-row 15: 'blank course';
+-row 16: 'blank school','blank exam date','blank end time';
+-row 17: 'invalid exam end' [exam start time is later than end time]</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+course.csv: 18
+Errors: 
+line2 - 'invalid exam date,invalid excam start, invalid exam end';
+line3 - 'invalid title, invalid description';
+line4 - 'invalid description';
+line6 - 'invalid exam date';
+line15 - 'blank course';
+line16 - 'blank school, exam date, exam start';
+Missing : 
+line 5 and 17: 'invalid exam end';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the section csv file is not loaded successfully with empty field. File has invalid course which is not found in course file. Start and end time are written in an incorrect format and end tiem is not later than start time. Section name is not started with 'S'. Instructor name and venue exceed 100 characters. Size of section is not a positive number. </t>
+  </si>
+  <si>
+    <t>rows loaded successfully for section csv: 26
+-row 2: 'invalid course'[course is not found in course csv];
+-row 3: 'invalid section' [section is not start with 'S'];
+-row 5: 'invalid start'[Not a time value];
+-row 6: 'invalid instructor' [exceed 100 characters];
+-row 7: 'invalid venue'[exceed 100 characters];
+-row 8: 'invalid start'[start time is later than end time];
+-row 9:'invalid size'[negative value];
+-row 10: 'invalid day'[incorrect format];
+-row 16: 'blank course','blank section','blank instructor';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines Loaded: 
+section.csv: 26
+Errors: 
+line2 - 'invalid course';
+line3 - 'invalid section';
+line5 - 'invalid start';
+line6 - 'invalid instructor';
+line7 - 'invalid venue';
+line8 - 'invalid start';
+line9 - 'invalid size';
+line10 - 'invalid day';
+line 16 - 'blank course,school,exam start';
+</t>
+  </si>
+  <si>
+    <t>Validate that the prerequisite csv file is not loaded successfully with empty course and code field, not found course and prerequisite.</t>
+  </si>
+  <si>
+    <t>row loaded successfullly for prerequisite csv: 3
+-row 2: 'prerequisite field blank';
+-row 3: 'invalid course'[course not found in course csv];
+-row 4: 'invalid prerequisite' [course not found in course csv];
+-row 7: 'invalid course', 'invalid prerequisite';
+-row 8: 'course field blank';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines Loaded: 
+prerequisite.csv: 3
+Errors: 
+line2 - 'blank prerequisite';
+line3 - 'invalid course';
+line4 - 'invalid prerequisite';
+line7 - 'invalid course, invalid prerequisite';
+line8 - 'blank course';
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the course_completed csv file is not loaded succefully with empty userid and code field, not found userid and course code. File has invalid input as user does not fulfil the prerequisite </t>
+  </si>
+  <si>
+    <t>rows successfully loaded for course_completed.csv: 1
+-row 2: 'invalid course'[course not found in course csv];
+-row 3: 'blank course';
+-row 4: 'invalid course completed'[the pre-requisite course has yet to be attempted];
+-row 6: 'invalid userid'[userid(case-insensitive) not found in student csv];
+-row 7: 'invalid userid'[userid not found in student csv];
+-row 8: 'blank userid';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lines Loaded: 
+course_completed.csv: 2
+Errors: 
+line2 - 'invalid course';
+line3 - 'blank';
+line7 - 'invalid userid';
+line8 - 'blank';
+line4 - 'invalid course completed';
+Missing error:
+line 6: 'invalid userid'(case-sensitive);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the Bid csv file is not loaded successfully with empty fields. Userid is not found in student csv. The amount is less than 10 or not an positive value or has more than 2 decimal places. Course and section is not found in the course and section file. </t>
+  </si>
+  <si>
+    <t>row successfully loaded for bid.csv:  8
+-row 5: 'blank userid';
+-row 6: 'blank code','blank section';
+-row 7: 'invalid amount'[amount less than 10];
+-row 8: 'invalid amount'[negative amount];
+-row 23: 'invalid section'[not found in section.csv];
+-row 24:'invalid userid'[not found in student.csv];</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+bid.csv : 23
+No error!
+Database: bid line loaded - 17</t>
+  </si>
+  <si>
+    <t>Validate that the Bid csv file is not loaded successfully. 
+1 .User has more than 5 bids.
+2. User has completed the course
+3. User has insufficient e-dollar to bid that section
+4. User has not completed the prererquisites for that course
+5. User's class timetable and exam timetable of previous bid clash with current bid
+6. User bid a module which is not provided by his school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row successfully loaded for bid.csv:15
+-row 31: 'section limit reached'[same user has more than 5bids];
+-row 2: 'course completed';
+-row 4: 'class tiemtable clash' [clash with row 3];
+-row 10: 'exam timetable clash' [clash with row 9];
+-row 16: 'incomplete prerequisite';
+-row 18: 'not enough e-dollar';
+-row 32: 'incomplete prerequisite';
+</t>
+  </si>
+  <si>
+    <t>Lines Loaded: 
+bid.csv : 30
+No error!
+Database: bid line loaded - 26</t>
+  </si>
+  <si>
+    <t>251-update-bid</t>
+  </si>
+  <si>
+    <t>252-update-bid</t>
+  </si>
+  <si>
+    <t>253-update-bid</t>
+  </si>
+  <si>
+    <t>265-update-bid</t>
+  </si>
+  <si>
+    <t>301-delete-bid</t>
+  </si>
+  <si>
+    <t>303-delete-bid</t>
+  </si>
+  <si>
+    <t>302-delete-bid</t>
+  </si>
+  <si>
+    <t>254-update-bid</t>
+  </si>
+  <si>
+    <t>255-update-bid</t>
+  </si>
+  <si>
+    <t>256-update-bid</t>
+  </si>
+  <si>
+    <t>257-update-bid</t>
+  </si>
+  <si>
+    <t>258-update-bid</t>
+  </si>
+  <si>
+    <t>259-update-bid</t>
+  </si>
+  <si>
+    <t>260-update-bid</t>
+  </si>
+  <si>
+    <t>261-update-bid</t>
+  </si>
+  <si>
+    <t>262-update-bid</t>
+  </si>
+  <si>
+    <t>263-update-bid</t>
+  </si>
+  <si>
+    <t>264-update-bid</t>
   </si>
 </sst>
 </file>
@@ -1486,10 +1824,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1556,9 +1895,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B0114881-A1A9-43B1-B085-37A183B248D1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4869,10 +5261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC1028"/>
+  <dimension ref="A1:AC1027"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A17" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5392,53 +5784,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>41</v>
+      <c r="B19" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>17</v>
@@ -5449,22 +5841,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -5474,197 +5866,197 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>135</v>
+      <c r="B22" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="F22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="16"/>
+    </row>
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="16"/>
+    </row>
+    <row r="26" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="16"/>
-    </row>
-    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="16"/>
-    </row>
-    <row r="27" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>237</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="E29" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="F29" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>17</v>
@@ -5672,45 +6064,45 @@
     </row>
     <row r="30" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>163</v>
+      <c r="E31" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>241</v>
@@ -5718,57 +6110,57 @@
       <c r="G31" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="G32" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G33" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>17</v>
@@ -5776,25 +6168,25 @@
     </row>
     <row r="34" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>17</v>
@@ -5802,25 +6194,25 @@
     </row>
     <row r="35" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>17</v>
@@ -5828,77 +6220,77 @@
     </row>
     <row r="36" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>236</v>
+        <v>247</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="F38" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>17</v>
@@ -5906,25 +6298,25 @@
     </row>
     <row r="39" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E39" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>17</v>
@@ -5932,25 +6324,25 @@
     </row>
     <row r="40" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E40" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>17</v>
@@ -5958,25 +6350,25 @@
     </row>
     <row r="41" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E41" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>17</v>
@@ -5984,25 +6376,25 @@
     </row>
     <row r="42" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E42" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>17</v>
@@ -6010,25 +6402,25 @@
     </row>
     <row r="43" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E43" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>17</v>
@@ -6036,25 +6428,25 @@
     </row>
     <row r="44" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>183</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>17</v>
@@ -6062,25 +6454,25 @@
     </row>
     <row r="45" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="E45" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="F45" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>17</v>
@@ -6088,25 +6480,25 @@
     </row>
     <row r="46" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
-        <v>19</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>186</v>
+      <c r="D46" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>17</v>
@@ -6114,25 +6506,25 @@
     </row>
     <row r="47" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="E47" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="F47" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>17</v>
@@ -6140,45 +6532,45 @@
     </row>
     <row r="48" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="E48" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>22</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="E49" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>260</v>
@@ -6186,285 +6578,285 @@
       <c r="G49" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
-        <v>22</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>262</v>
-      </c>
       <c r="G50" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="E51" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>198</v>
-      </c>
       <c r="F51" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E52" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H52" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E54" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E55" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C56" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F56" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>31</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="G56" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>30</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>266</v>
-      </c>
       <c r="G57" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>269</v>
@@ -6476,45 +6868,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
-        <v>34</v>
-      </c>
+    <row r="61" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
       <c r="B61" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>270</v>
@@ -6526,121 +6916,144 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="20" t="s">
+    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="31"/>
+      <c r="AC64" s="21"/>
+    </row>
+    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="21"/>
+    </row>
+    <row r="66" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="H63" s="7" t="s">
+      <c r="C66" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="21"/>
-    </row>
-    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="32"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="33"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="21"/>
-    </row>
-    <row r="67" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+    </row>
+    <row r="67" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>217</v>
-      </c>
       <c r="F67" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>220</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -6664,30 +7077,30 @@
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
     </row>
-    <row r="68" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -6711,30 +7124,30 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
     </row>
-    <row r="69" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -6758,30 +7171,30 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
     </row>
-    <row r="70" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>216</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -6807,10 +7220,10 @@
     </row>
     <row r="71" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>230</v>
@@ -6819,13 +7232,13 @@
         <v>231</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>17</v>
@@ -6852,52 +7265,8 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
     </row>
-    <row r="72" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>6</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
+    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
@@ -7466,8 +7835,8 @@
     <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="7"/>
     </row>
-    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C262" s="7"/>
+    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="14"/>
     </row>
     <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="14"/>
@@ -7496,9 +7865,7 @@
     <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="14"/>
     </row>
-    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C272" s="14"/>
-    </row>
+    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8254,12 +8621,11 @@
     <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:AB3"/>
-    <mergeCell ref="A25:AB26"/>
-    <mergeCell ref="A65:AB66"/>
+    <mergeCell ref="A24:AB25"/>
+    <mergeCell ref="A64:AB65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8267,10 +8633,4207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B027-578B-4808-A9B1-240D96FAC986}">
+  <dimension ref="A1:AD1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="32" style="40" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="40" customWidth="1"/>
+    <col min="8" max="30" width="8.6640625" style="40" customWidth="1"/>
+    <col min="31" max="16384" width="14.44140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:30" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+    </row>
+    <row r="4" spans="1:30" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+    </row>
+    <row r="5" spans="1:30" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+    </row>
+    <row r="6" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+    </row>
+    <row r="7" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+    </row>
+    <row r="8" spans="1:30" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+    </row>
+    <row r="9" spans="1:30" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+    </row>
+    <row r="10" spans="1:30" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+    </row>
+    <row r="11" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+    </row>
+    <row r="12" spans="1:30" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+    </row>
+    <row r="13" spans="1:30" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+    </row>
+    <row r="14" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+    </row>
+    <row r="15" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+    </row>
+    <row r="16" spans="1:30" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+    </row>
+    <row r="17" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+    </row>
+    <row r="18" spans="1:30" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+    </row>
+    <row r="22" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <v>19</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+    </row>
+    <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+    </row>
+    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+    </row>
+    <row r="26" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>1</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" spans="1:30" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48">
+        <v>2</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" s="49"/>
+    </row>
+    <row r="28" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>3</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:30" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48">
+        <v>4</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" spans="1:30" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>5</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" spans="1:30" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48">
+        <v>6</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:30" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>7</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:30" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>8</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:30" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="48">
+        <v>9</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="49"/>
+    </row>
+    <row r="35" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+    </row>
+    <row r="37" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="55"/>
+    </row>
+    <row r="38" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
+        <v>1</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
+        <v>2</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56">
+        <v>3</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
+        <v>4</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
+        <v>5</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
+        <v>6</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="49"/>
+    </row>
+    <row r="45" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="49"/>
+    </row>
+    <row r="46" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="49"/>
+    </row>
+    <row r="47" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="49"/>
+    </row>
+    <row r="48" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="49"/>
+    </row>
+    <row r="49" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="49"/>
+    </row>
+    <row r="50" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="49"/>
+    </row>
+    <row r="51" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="49"/>
+    </row>
+    <row r="52" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="49"/>
+    </row>
+    <row r="53" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="49"/>
+    </row>
+    <row r="54" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="49"/>
+    </row>
+    <row r="55" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="49"/>
+    </row>
+    <row r="56" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="49"/>
+    </row>
+    <row r="57" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="49"/>
+    </row>
+    <row r="58" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="49"/>
+    </row>
+    <row r="59" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="49"/>
+    </row>
+    <row r="60" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="49"/>
+    </row>
+    <row r="61" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="49"/>
+    </row>
+    <row r="62" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="49"/>
+    </row>
+    <row r="63" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="49"/>
+    </row>
+    <row r="64" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="49"/>
+    </row>
+    <row r="65" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="49"/>
+    </row>
+    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="49"/>
+    </row>
+    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="49"/>
+    </row>
+    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="49"/>
+    </row>
+    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="49"/>
+    </row>
+    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="49"/>
+    </row>
+    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="49"/>
+    </row>
+    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="49"/>
+    </row>
+    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="49"/>
+    </row>
+    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="49"/>
+    </row>
+    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="49"/>
+    </row>
+    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="49"/>
+    </row>
+    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="49"/>
+    </row>
+    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="49"/>
+    </row>
+    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="49"/>
+    </row>
+    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="49"/>
+    </row>
+    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="49"/>
+    </row>
+    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="49"/>
+    </row>
+    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="49"/>
+    </row>
+    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="49"/>
+    </row>
+    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="49"/>
+    </row>
+    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="49"/>
+    </row>
+    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="49"/>
+    </row>
+    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="49"/>
+    </row>
+    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="49"/>
+    </row>
+    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="49"/>
+    </row>
+    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="49"/>
+    </row>
+    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="49"/>
+    </row>
+    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="49"/>
+    </row>
+    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="49"/>
+    </row>
+    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="49"/>
+    </row>
+    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="49"/>
+    </row>
+    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="49"/>
+    </row>
+    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="49"/>
+    </row>
+    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="49"/>
+    </row>
+    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="49"/>
+    </row>
+    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="49"/>
+    </row>
+    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="49"/>
+    </row>
+    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="49"/>
+    </row>
+    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="49"/>
+    </row>
+    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="49"/>
+    </row>
+    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="49"/>
+    </row>
+    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="49"/>
+    </row>
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="49"/>
+    </row>
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="49"/>
+    </row>
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="49"/>
+    </row>
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="49"/>
+    </row>
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="49"/>
+    </row>
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="49"/>
+    </row>
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="49"/>
+    </row>
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="49"/>
+    </row>
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="49"/>
+    </row>
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="49"/>
+    </row>
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="49"/>
+    </row>
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="49"/>
+    </row>
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="49"/>
+    </row>
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="49"/>
+    </row>
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="49"/>
+    </row>
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="49"/>
+    </row>
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="49"/>
+    </row>
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="49"/>
+    </row>
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="49"/>
+    </row>
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="49"/>
+    </row>
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="49"/>
+    </row>
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="49"/>
+    </row>
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="49"/>
+    </row>
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="49"/>
+    </row>
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="49"/>
+    </row>
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="49"/>
+    </row>
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="49"/>
+    </row>
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="49"/>
+    </row>
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="49"/>
+    </row>
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="49"/>
+    </row>
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="49"/>
+    </row>
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="49"/>
+    </row>
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="49"/>
+    </row>
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="49"/>
+    </row>
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="49"/>
+    </row>
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="49"/>
+    </row>
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="49"/>
+    </row>
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="49"/>
+    </row>
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="49"/>
+    </row>
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="49"/>
+    </row>
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="49"/>
+    </row>
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="49"/>
+    </row>
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="49"/>
+    </row>
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="49"/>
+    </row>
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="49"/>
+    </row>
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="49"/>
+    </row>
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="49"/>
+    </row>
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="49"/>
+    </row>
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="49"/>
+    </row>
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="49"/>
+    </row>
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="49"/>
+    </row>
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="49"/>
+    </row>
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="49"/>
+    </row>
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="49"/>
+    </row>
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="49"/>
+    </row>
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="49"/>
+    </row>
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="49"/>
+    </row>
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="49"/>
+    </row>
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="49"/>
+    </row>
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="49"/>
+    </row>
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="49"/>
+    </row>
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="49"/>
+    </row>
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="49"/>
+    </row>
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="49"/>
+    </row>
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="49"/>
+    </row>
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="49"/>
+    </row>
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="49"/>
+    </row>
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="49"/>
+    </row>
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="49"/>
+    </row>
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="49"/>
+    </row>
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="49"/>
+    </row>
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="49"/>
+    </row>
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="49"/>
+    </row>
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="49"/>
+    </row>
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="49"/>
+    </row>
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="49"/>
+    </row>
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="49"/>
+    </row>
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="49"/>
+    </row>
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="49"/>
+    </row>
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="49"/>
+    </row>
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="49"/>
+    </row>
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="49"/>
+    </row>
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="49"/>
+    </row>
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="49"/>
+    </row>
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="49"/>
+    </row>
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="49"/>
+    </row>
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="49"/>
+    </row>
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="49"/>
+    </row>
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="49"/>
+    </row>
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="49"/>
+    </row>
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="49"/>
+    </row>
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="49"/>
+    </row>
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="49"/>
+    </row>
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="49"/>
+    </row>
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="49"/>
+    </row>
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="49"/>
+    </row>
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="49"/>
+    </row>
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="49"/>
+    </row>
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="49"/>
+    </row>
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="49"/>
+    </row>
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="49"/>
+    </row>
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="49"/>
+    </row>
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="49"/>
+    </row>
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="49"/>
+    </row>
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="49"/>
+    </row>
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="49"/>
+    </row>
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="49"/>
+    </row>
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="49"/>
+    </row>
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="49"/>
+    </row>
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="49"/>
+    </row>
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="49"/>
+    </row>
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="49"/>
+    </row>
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="49"/>
+    </row>
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="49"/>
+    </row>
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="49"/>
+    </row>
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="49"/>
+    </row>
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="49"/>
+    </row>
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="49"/>
+    </row>
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="49"/>
+    </row>
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="49"/>
+    </row>
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="49"/>
+    </row>
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="49"/>
+    </row>
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="49"/>
+    </row>
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="49"/>
+    </row>
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="49"/>
+    </row>
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="49"/>
+    </row>
+    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="58"/>
+    </row>
+    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="58"/>
+    </row>
+    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="58"/>
+    </row>
+    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="58"/>
+    </row>
+    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="58"/>
+    </row>
+    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="58"/>
+    </row>
+    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="58"/>
+    </row>
+    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="58"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="58"/>
+    </row>
+    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="58"/>
+    </row>
+    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="58"/>
+    </row>
+    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="58"/>
+    </row>
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="58"/>
+    </row>
+    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="58"/>
+    </row>
+    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="58"/>
+    </row>
+    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="58"/>
+    </row>
+    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="58"/>
+    </row>
+    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="58"/>
+    </row>
+    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="58"/>
+    </row>
+    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="58"/>
+    </row>
+    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="58"/>
+    </row>
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="58"/>
+    </row>
+    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="58"/>
+    </row>
+    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="58"/>
+    </row>
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="58"/>
+    </row>
+    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="58"/>
+    </row>
+    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="58"/>
+    </row>
+    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="58"/>
+    </row>
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="58"/>
+    </row>
+    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="58"/>
+    </row>
+    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="58"/>
+    </row>
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="58"/>
+    </row>
+    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="58"/>
+    </row>
+    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="58"/>
+    </row>
+    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="58"/>
+    </row>
+    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="58"/>
+    </row>
+    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="58"/>
+    </row>
+    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="58"/>
+    </row>
+    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="58"/>
+    </row>
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="58"/>
+    </row>
+    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="58"/>
+    </row>
+    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="58"/>
+    </row>
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="58"/>
+    </row>
+    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="58"/>
+    </row>
+    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="58"/>
+    </row>
+    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="58"/>
+    </row>
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="58"/>
+    </row>
+    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="58"/>
+    </row>
+    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="58"/>
+    </row>
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="58"/>
+    </row>
+    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="58"/>
+    </row>
+    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="58"/>
+    </row>
+    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="58"/>
+    </row>
+    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="58"/>
+    </row>
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="58"/>
+    </row>
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="58"/>
+    </row>
+    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="58"/>
+    </row>
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="58"/>
+    </row>
+    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="58"/>
+    </row>
+    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="58"/>
+    </row>
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="58"/>
+    </row>
+    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="58"/>
+    </row>
+    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="58"/>
+    </row>
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="58"/>
+    </row>
+    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="58"/>
+    </row>
+    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="58"/>
+    </row>
+    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="58"/>
+    </row>
+    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="58"/>
+    </row>
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="58"/>
+    </row>
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="58"/>
+    </row>
+    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="58"/>
+    </row>
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="58"/>
+    </row>
+    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="58"/>
+    </row>
+    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="58"/>
+    </row>
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="58"/>
+    </row>
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="58"/>
+    </row>
+    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="58"/>
+    </row>
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="58"/>
+    </row>
+    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="58"/>
+    </row>
+    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="58"/>
+    </row>
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="58"/>
+    </row>
+    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="58"/>
+    </row>
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="58"/>
+    </row>
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="58"/>
+    </row>
+    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="58"/>
+    </row>
+    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="58"/>
+    </row>
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="58"/>
+    </row>
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="58"/>
+    </row>
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="58"/>
+    </row>
+    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="58"/>
+    </row>
+    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="58"/>
+    </row>
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="58"/>
+    </row>
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="58"/>
+    </row>
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="58"/>
+    </row>
+    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="58"/>
+    </row>
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="58"/>
+    </row>
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="58"/>
+    </row>
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="58"/>
+    </row>
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="58"/>
+    </row>
+    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="58"/>
+    </row>
+    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="58"/>
+    </row>
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="58"/>
+    </row>
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="58"/>
+    </row>
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="58"/>
+    </row>
+    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="58"/>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="58"/>
+    </row>
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="58"/>
+    </row>
+    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="58"/>
+    </row>
+    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="58"/>
+    </row>
+    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="58"/>
+    </row>
+    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="58"/>
+    </row>
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="58"/>
+    </row>
+    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="58"/>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="58"/>
+    </row>
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="58"/>
+    </row>
+    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="58"/>
+    </row>
+    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="58"/>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="58"/>
+    </row>
+    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="58"/>
+    </row>
+    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="58"/>
+    </row>
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="58"/>
+    </row>
+    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="58"/>
+    </row>
+    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="58"/>
+    </row>
+    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="58"/>
+    </row>
+    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="58"/>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="58"/>
+    </row>
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="58"/>
+    </row>
+    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="58"/>
+    </row>
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="58"/>
+    </row>
+    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="58"/>
+    </row>
+    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="58"/>
+    </row>
+    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" s="58"/>
+    </row>
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="58"/>
+    </row>
+    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="58"/>
+    </row>
+    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="58"/>
+    </row>
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="58"/>
+    </row>
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="58"/>
+    </row>
+    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="58"/>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="58"/>
+    </row>
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="58"/>
+    </row>
+    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="58"/>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="58"/>
+    </row>
+    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="58"/>
+    </row>
+    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="58"/>
+    </row>
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="58"/>
+    </row>
+    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="58"/>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="58"/>
+    </row>
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="58"/>
+    </row>
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="58"/>
+    </row>
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="58"/>
+    </row>
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="58"/>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="58"/>
+    </row>
+    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="58"/>
+    </row>
+    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="58"/>
+    </row>
+    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="58"/>
+    </row>
+    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="58"/>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="58"/>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="58"/>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="58"/>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="58"/>
+    </row>
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="58"/>
+    </row>
+    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="58"/>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="58"/>
+    </row>
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="58"/>
+    </row>
+    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="58"/>
+    </row>
+    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="58"/>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="58"/>
+    </row>
+    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="58"/>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="58"/>
+    </row>
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="58"/>
+    </row>
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="58"/>
+    </row>
+    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="58"/>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="58"/>
+    </row>
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="58"/>
+    </row>
+    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="58"/>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="58"/>
+    </row>
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="58"/>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="58"/>
+    </row>
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="58"/>
+    </row>
+    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" s="58"/>
+    </row>
+    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="58"/>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="58"/>
+    </row>
+    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" s="58"/>
+    </row>
+    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="58"/>
+    </row>
+    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="58"/>
+    </row>
+    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="58"/>
+    </row>
+    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="58"/>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="58"/>
+    </row>
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="58"/>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="58"/>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="58"/>
+    </row>
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="58"/>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="58"/>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="58"/>
+    </row>
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="58"/>
+    </row>
+    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="58"/>
+    </row>
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="58"/>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="58"/>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="58"/>
+    </row>
+    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="58"/>
+    </row>
+    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="58"/>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="58"/>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="58"/>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="58"/>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="58"/>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="58"/>
+    </row>
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="58"/>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="58"/>
+    </row>
+    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="58"/>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="58"/>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="58"/>
+    </row>
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="58"/>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="58"/>
+    </row>
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="58"/>
+    </row>
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="58"/>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="58"/>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="58"/>
+    </row>
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="58"/>
+    </row>
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="58"/>
+    </row>
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="58"/>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="58"/>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="58"/>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="58"/>
+    </row>
+    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="58"/>
+    </row>
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="58"/>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="58"/>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="58"/>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="58"/>
+    </row>
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="58"/>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="58"/>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="58"/>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="58"/>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="58"/>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="58"/>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="58"/>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="58"/>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="58"/>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="58"/>
+    </row>
+    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="58"/>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="58"/>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="58"/>
+    </row>
+    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="58"/>
+    </row>
+    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="58"/>
+    </row>
+    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="58"/>
+    </row>
+    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="58"/>
+    </row>
+    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="58"/>
+    </row>
+    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="58"/>
+    </row>
+    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="58"/>
+    </row>
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="58"/>
+    </row>
+    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="58"/>
+    </row>
+    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B484" s="58"/>
+    </row>
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="58"/>
+    </row>
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="58"/>
+    </row>
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="58"/>
+    </row>
+    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="58"/>
+    </row>
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="58"/>
+    </row>
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="58"/>
+    </row>
+    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="58"/>
+    </row>
+    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="58"/>
+    </row>
+    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="58"/>
+    </row>
+    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="58"/>
+    </row>
+    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="58"/>
+    </row>
+    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="58"/>
+    </row>
+    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="58"/>
+    </row>
+    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="58"/>
+    </row>
+    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="58"/>
+    </row>
+    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="58"/>
+    </row>
+    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="58"/>
+    </row>
+    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="58"/>
+    </row>
+    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="58"/>
+    </row>
+    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="58"/>
+    </row>
+    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="58"/>
+    </row>
+    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="58"/>
+    </row>
+    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="58"/>
+    </row>
+    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="58"/>
+    </row>
+    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="58"/>
+    </row>
+    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="58"/>
+    </row>
+    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="58"/>
+    </row>
+    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="58"/>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="58"/>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="58"/>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="58"/>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="58"/>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="58"/>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="58"/>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="58"/>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="58"/>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="58"/>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="58"/>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="58"/>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="58"/>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="58"/>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="58"/>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="58"/>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="58"/>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="58"/>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="58"/>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="58"/>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="58"/>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="58"/>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="58"/>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="58"/>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="58"/>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="58"/>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="58"/>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="58"/>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="58"/>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="58"/>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="58"/>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="58"/>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="58"/>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="58"/>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="58"/>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="58"/>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="58"/>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="58"/>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="58"/>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="58"/>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="58"/>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="58"/>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="58"/>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="58"/>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="58"/>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="58"/>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="58"/>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="58"/>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="58"/>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="58"/>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="58"/>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="58"/>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="58"/>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="58"/>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="58"/>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="58"/>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="58"/>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="58"/>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="58"/>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="58"/>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="58"/>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="58"/>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="58"/>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="58"/>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="58"/>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="58"/>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="58"/>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="58"/>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="58"/>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="58"/>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="58"/>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="58"/>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="58"/>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="58"/>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="58"/>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="58"/>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="58"/>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="58"/>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="58"/>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="58"/>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="58"/>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="58"/>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="58"/>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="58"/>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="58"/>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="58"/>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="58"/>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="58"/>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="58"/>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="58"/>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="58"/>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="58"/>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="58"/>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="58"/>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="58"/>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="58"/>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="58"/>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="58"/>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="58"/>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" s="58"/>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" s="58"/>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="58"/>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" s="58"/>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" s="58"/>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B616" s="58"/>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B617" s="58"/>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B618" s="58"/>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" s="58"/>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" s="58"/>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" s="58"/>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B622" s="58"/>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" s="58"/>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" s="58"/>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B625" s="58"/>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="58"/>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B627" s="58"/>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" s="58"/>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" s="58"/>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="58"/>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="58"/>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B632" s="58"/>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B633" s="58"/>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B634" s="58"/>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B635" s="58"/>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B636" s="58"/>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B637" s="58"/>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B638" s="58"/>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="58"/>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B640" s="58"/>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B641" s="58"/>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B642" s="58"/>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B643" s="58"/>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="58"/>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="58"/>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B646" s="58"/>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="58"/>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="58"/>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="58"/>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B650" s="58"/>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B651" s="58"/>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B652" s="58"/>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B653" s="58"/>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B654" s="58"/>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B655" s="58"/>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B656" s="58"/>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B657" s="58"/>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B658" s="58"/>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B659" s="58"/>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B660" s="58"/>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="58"/>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="58"/>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B663" s="58"/>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B664" s="58"/>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="58"/>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B666" s="58"/>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B667" s="58"/>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B668" s="58"/>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B669" s="58"/>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="58"/>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B671" s="58"/>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B672" s="58"/>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B673" s="58"/>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="58"/>
+    </row>
+    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="58"/>
+    </row>
+    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B676" s="58"/>
+    </row>
+    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B677" s="58"/>
+    </row>
+    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B678" s="58"/>
+    </row>
+    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B679" s="58"/>
+    </row>
+    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B680" s="58"/>
+    </row>
+    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B681" s="58"/>
+    </row>
+    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B682" s="58"/>
+    </row>
+    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" s="58"/>
+    </row>
+    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="58"/>
+    </row>
+    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B685" s="58"/>
+    </row>
+    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B686" s="58"/>
+    </row>
+    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B687" s="58"/>
+    </row>
+    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B688" s="58"/>
+    </row>
+    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B689" s="58"/>
+    </row>
+    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B690" s="58"/>
+    </row>
+    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B691" s="58"/>
+    </row>
+    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="58"/>
+    </row>
+    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B693" s="58"/>
+    </row>
+    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B694" s="58"/>
+    </row>
+    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B695" s="58"/>
+    </row>
+    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B696" s="58"/>
+    </row>
+    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B697" s="58"/>
+    </row>
+    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B698" s="58"/>
+    </row>
+    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B699" s="58"/>
+    </row>
+    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B700" s="58"/>
+    </row>
+    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="58"/>
+    </row>
+    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B702" s="58"/>
+    </row>
+    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B703" s="58"/>
+    </row>
+    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B704" s="58"/>
+    </row>
+    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B705" s="58"/>
+    </row>
+    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B706" s="58"/>
+    </row>
+    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B707" s="58"/>
+    </row>
+    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B708" s="58"/>
+    </row>
+    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B709" s="58"/>
+    </row>
+    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B710" s="58"/>
+    </row>
+    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B711" s="58"/>
+    </row>
+    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="58"/>
+    </row>
+    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B713" s="58"/>
+    </row>
+    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B714" s="58"/>
+    </row>
+    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B715" s="58"/>
+    </row>
+    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B716" s="58"/>
+    </row>
+    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B717" s="58"/>
+    </row>
+    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B718" s="58"/>
+    </row>
+    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B719" s="58"/>
+    </row>
+    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B720" s="58"/>
+    </row>
+    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B721" s="58"/>
+    </row>
+    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B722" s="58"/>
+    </row>
+    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B723" s="58"/>
+    </row>
+    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B724" s="58"/>
+    </row>
+    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B725" s="58"/>
+    </row>
+    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="58"/>
+    </row>
+    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B727" s="58"/>
+    </row>
+    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B728" s="58"/>
+    </row>
+    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B729" s="58"/>
+    </row>
+    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B730" s="58"/>
+    </row>
+    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B731" s="58"/>
+    </row>
+    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B732" s="58"/>
+    </row>
+    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B733" s="58"/>
+    </row>
+    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B734" s="58"/>
+    </row>
+    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B735" s="58"/>
+    </row>
+    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B736" s="58"/>
+    </row>
+    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B737" s="58"/>
+    </row>
+    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B738" s="58"/>
+    </row>
+    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B739" s="58"/>
+    </row>
+    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B740" s="58"/>
+    </row>
+    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B741" s="58"/>
+    </row>
+    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B742" s="58"/>
+    </row>
+    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B743" s="58"/>
+    </row>
+    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B744" s="58"/>
+    </row>
+    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B745" s="58"/>
+    </row>
+    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B746" s="58"/>
+    </row>
+    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B747" s="58"/>
+    </row>
+    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B748" s="58"/>
+    </row>
+    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B749" s="58"/>
+    </row>
+    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B750" s="58"/>
+    </row>
+    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B751" s="58"/>
+    </row>
+    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B752" s="58"/>
+    </row>
+    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B753" s="58"/>
+    </row>
+    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B754" s="58"/>
+    </row>
+    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B755" s="58"/>
+    </row>
+    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B756" s="58"/>
+    </row>
+    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B757" s="58"/>
+    </row>
+    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B758" s="58"/>
+    </row>
+    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B759" s="58"/>
+    </row>
+    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B760" s="58"/>
+    </row>
+    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B761" s="58"/>
+    </row>
+    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B762" s="58"/>
+    </row>
+    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B763" s="58"/>
+    </row>
+    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B764" s="58"/>
+    </row>
+    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B765" s="58"/>
+    </row>
+    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B766" s="58"/>
+    </row>
+    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B767" s="58"/>
+    </row>
+    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B768" s="58"/>
+    </row>
+    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B769" s="58"/>
+    </row>
+    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B770" s="58"/>
+    </row>
+    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B771" s="58"/>
+    </row>
+    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B772" s="58"/>
+    </row>
+    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B773" s="58"/>
+    </row>
+    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B774" s="58"/>
+    </row>
+    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B775" s="58"/>
+    </row>
+    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B776" s="58"/>
+    </row>
+    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B777" s="58"/>
+    </row>
+    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B778" s="58"/>
+    </row>
+    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B779" s="58"/>
+    </row>
+    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B780" s="58"/>
+    </row>
+    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B781" s="58"/>
+    </row>
+    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B782" s="58"/>
+    </row>
+    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B783" s="58"/>
+    </row>
+    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B784" s="58"/>
+    </row>
+    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B785" s="58"/>
+    </row>
+    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B786" s="58"/>
+    </row>
+    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B787" s="58"/>
+    </row>
+    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B788" s="58"/>
+    </row>
+    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B789" s="58"/>
+    </row>
+    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B790" s="58"/>
+    </row>
+    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B791" s="58"/>
+    </row>
+    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B792" s="58"/>
+    </row>
+    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B793" s="58"/>
+    </row>
+    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B794" s="58"/>
+    </row>
+    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="58"/>
+    </row>
+    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B796" s="58"/>
+    </row>
+    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B797" s="58"/>
+    </row>
+    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B798" s="58"/>
+    </row>
+    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="58"/>
+    </row>
+    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B800" s="58"/>
+    </row>
+    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B801" s="58"/>
+    </row>
+    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B802" s="58"/>
+    </row>
+    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="58"/>
+    </row>
+    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B804" s="58"/>
+    </row>
+    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="58"/>
+    </row>
+    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B806" s="58"/>
+    </row>
+    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B807" s="58"/>
+    </row>
+    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B808" s="58"/>
+    </row>
+    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B809" s="58"/>
+    </row>
+    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="58"/>
+    </row>
+    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="58"/>
+    </row>
+    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B812" s="58"/>
+    </row>
+    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B813" s="58"/>
+    </row>
+    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B814" s="58"/>
+    </row>
+    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="58"/>
+    </row>
+    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B816" s="58"/>
+    </row>
+    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B817" s="58"/>
+    </row>
+    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B818" s="58"/>
+    </row>
+    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B819" s="58"/>
+    </row>
+    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B820" s="58"/>
+    </row>
+    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="58"/>
+    </row>
+    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B822" s="58"/>
+    </row>
+    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B823" s="58"/>
+    </row>
+    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="58"/>
+    </row>
+    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B825" s="58"/>
+    </row>
+    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B826" s="58"/>
+    </row>
+    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B827" s="58"/>
+    </row>
+    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B828" s="58"/>
+    </row>
+    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B829" s="58"/>
+    </row>
+    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B830" s="58"/>
+    </row>
+    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B831" s="58"/>
+    </row>
+    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B832" s="58"/>
+    </row>
+    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B833" s="58"/>
+    </row>
+    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B834" s="58"/>
+    </row>
+    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B835" s="58"/>
+    </row>
+    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B836" s="58"/>
+    </row>
+    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B837" s="58"/>
+    </row>
+    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B838" s="58"/>
+    </row>
+    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B839" s="58"/>
+    </row>
+    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B840" s="58"/>
+    </row>
+    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B841" s="58"/>
+    </row>
+    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B842" s="58"/>
+    </row>
+    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B843" s="58"/>
+    </row>
+    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B844" s="58"/>
+    </row>
+    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B845" s="58"/>
+    </row>
+    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B846" s="58"/>
+    </row>
+    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B847" s="58"/>
+    </row>
+    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B848" s="58"/>
+    </row>
+    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B849" s="58"/>
+    </row>
+    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B850" s="58"/>
+    </row>
+    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B851" s="58"/>
+    </row>
+    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B852" s="58"/>
+    </row>
+    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B853" s="58"/>
+    </row>
+    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B854" s="58"/>
+    </row>
+    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B855" s="58"/>
+    </row>
+    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B856" s="58"/>
+    </row>
+    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B857" s="58"/>
+    </row>
+    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B858" s="58"/>
+    </row>
+    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B859" s="58"/>
+    </row>
+    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B860" s="58"/>
+    </row>
+    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B861" s="58"/>
+    </row>
+    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B862" s="58"/>
+    </row>
+    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B863" s="58"/>
+    </row>
+    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B864" s="58"/>
+    </row>
+    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B865" s="58"/>
+    </row>
+    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B866" s="58"/>
+    </row>
+    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B867" s="58"/>
+    </row>
+    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B868" s="58"/>
+    </row>
+    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B869" s="58"/>
+    </row>
+    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B870" s="58"/>
+    </row>
+    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B871" s="58"/>
+    </row>
+    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B872" s="58"/>
+    </row>
+    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B873" s="58"/>
+    </row>
+    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B874" s="58"/>
+    </row>
+    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B875" s="58"/>
+    </row>
+    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B876" s="58"/>
+    </row>
+    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="58"/>
+    </row>
+    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B878" s="58"/>
+    </row>
+    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B879" s="58"/>
+    </row>
+    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B880" s="58"/>
+    </row>
+    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B881" s="58"/>
+    </row>
+    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B882" s="58"/>
+    </row>
+    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="58"/>
+    </row>
+    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B884" s="58"/>
+    </row>
+    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B885" s="58"/>
+    </row>
+    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B886" s="58"/>
+    </row>
+    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="58"/>
+    </row>
+    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B888" s="58"/>
+    </row>
+    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B889" s="58"/>
+    </row>
+    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="58"/>
+    </row>
+    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B891" s="58"/>
+    </row>
+    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="58"/>
+    </row>
+    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B893" s="58"/>
+    </row>
+    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="58"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B895" s="58"/>
+    </row>
+    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B896" s="58"/>
+    </row>
+    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B897" s="58"/>
+    </row>
+    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B898" s="58"/>
+    </row>
+    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B899" s="58"/>
+    </row>
+    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B900" s="58"/>
+    </row>
+    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B901" s="58"/>
+    </row>
+    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B902" s="58"/>
+    </row>
+    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B903" s="58"/>
+    </row>
+    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B904" s="58"/>
+    </row>
+    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B905" s="58"/>
+    </row>
+    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B906" s="58"/>
+    </row>
+    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B907" s="58"/>
+    </row>
+    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B908" s="58"/>
+    </row>
+    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="58"/>
+    </row>
+    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="58"/>
+    </row>
+    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B911" s="58"/>
+    </row>
+    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B912" s="58"/>
+    </row>
+    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B913" s="58"/>
+    </row>
+    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B914" s="58"/>
+    </row>
+    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B915" s="58"/>
+    </row>
+    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B916" s="58"/>
+    </row>
+    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B917" s="58"/>
+    </row>
+    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B918" s="58"/>
+    </row>
+    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B919" s="58"/>
+    </row>
+    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B920" s="58"/>
+    </row>
+    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="58"/>
+    </row>
+    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B922" s="58"/>
+    </row>
+    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B923" s="58"/>
+    </row>
+    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B924" s="58"/>
+    </row>
+    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B925" s="58"/>
+    </row>
+    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B926" s="58"/>
+    </row>
+    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B927" s="58"/>
+    </row>
+    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B928" s="58"/>
+    </row>
+    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B929" s="58"/>
+    </row>
+    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B930" s="58"/>
+    </row>
+    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B931" s="58"/>
+    </row>
+    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B932" s="58"/>
+    </row>
+    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B933" s="58"/>
+    </row>
+    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B934" s="58"/>
+    </row>
+    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="58"/>
+    </row>
+    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B936" s="58"/>
+    </row>
+    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B937" s="58"/>
+    </row>
+    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B938" s="58"/>
+    </row>
+    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B939" s="58"/>
+    </row>
+    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B940" s="58"/>
+    </row>
+    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B941" s="58"/>
+    </row>
+    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B942" s="58"/>
+    </row>
+    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B943" s="58"/>
+    </row>
+    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="58"/>
+    </row>
+    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="58"/>
+    </row>
+    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B946" s="58"/>
+    </row>
+    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B947" s="58"/>
+    </row>
+    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B948" s="58"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B949" s="58"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B950" s="58"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B951" s="58"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B952" s="58"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B953" s="58"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B954" s="58"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B955" s="58"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B956" s="58"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B957" s="58"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B958" s="58"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B959" s="58"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B960" s="58"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B961" s="58"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B962" s="58"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="58"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B964" s="58"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B965" s="58"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B966" s="58"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B967" s="58"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B968" s="58"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B969" s="58"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B970" s="58"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B971" s="58"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B972" s="58"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B973" s="58"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B974" s="58"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B975" s="58"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B976" s="58"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B977" s="58"/>
+    </row>
+    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B978" s="58"/>
+    </row>
+    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B979" s="58"/>
+    </row>
+    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B980" s="58"/>
+    </row>
+    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B981" s="58"/>
+    </row>
+    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B982" s="58"/>
+    </row>
+    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B983" s="58"/>
+    </row>
+    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B984" s="58"/>
+    </row>
+    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B985" s="58"/>
+    </row>
+    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B986" s="58"/>
+    </row>
+    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B987" s="58"/>
+    </row>
+    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B988" s="58"/>
+    </row>
+    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B989" s="58"/>
+    </row>
+    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B990" s="58"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B991" s="58"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B992" s="58"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B993" s="58"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="58"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="58"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="58"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B997" s="58"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="58"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="58"/>
+    </row>
+    <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1000" s="58"/>
+    </row>
+    <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1001" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A24:Z25"/>
+    <mergeCell ref="A36:Z37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6C661-1DC9-4757-AE25-6BF7B6BF2213}">
   <dimension ref="A1:AC1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -8410,13 +12973,13 @@
         <v>41</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>46</v>
@@ -8439,10 +13002,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>58</v>
@@ -8465,10 +13028,10 @@
         <v>60</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>63</v>
@@ -8491,10 +13054,10 @@
         <v>66</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>72</v>
@@ -8517,10 +13080,10 @@
         <v>75</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>80</v>
@@ -8543,10 +13106,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>87</v>
@@ -8569,10 +13132,10 @@
         <v>89</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>92</v>
@@ -8595,10 +13158,10 @@
         <v>94</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>97</v>
@@ -8621,10 +13184,10 @@
         <v>99</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>102</v>
@@ -8725,10 +13288,10 @@
         <v>117</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>120</v>
@@ -8780,7 +13343,7 @@
         <v>132</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>92</v>
@@ -8795,19 +13358,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>279</v>
-      </c>
       <c r="D19" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="F19" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="6"/>
@@ -8817,19 +13380,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="F20" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="6"/>
@@ -8839,22 +13402,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -8865,22 +13428,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>17</v>
@@ -8891,22 +13454,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
@@ -8917,19 +13480,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>139</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -8946,7 +13509,7 @@
     </row>
     <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -9012,19 +13575,19 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>156</v>
-      </c>
       <c r="F28" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>17</v>
@@ -9034,19 +13597,19 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="F29" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>30</v>
@@ -9055,19 +13618,19 @@
     <row r="30" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="F30" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>17</v>
@@ -9076,19 +13639,19 @@
     <row r="31" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>17</v>
@@ -9097,19 +13660,19 @@
     <row r="32" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>17</v>
@@ -9118,19 +13681,19 @@
     <row r="33" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>17</v>
@@ -9139,19 +13702,19 @@
     <row r="34" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="F34" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>17</v>
@@ -9160,19 +13723,19 @@
     <row r="35" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>17</v>
@@ -9181,19 +13744,19 @@
     <row r="36" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>17</v>
@@ -9202,19 +13765,19 @@
     <row r="37" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>17</v>
@@ -9222,22 +13785,22 @@
     </row>
     <row r="38" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>30</v>
@@ -9245,22 +13808,22 @@
     </row>
     <row r="39" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>177</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>17</v>
@@ -9268,22 +13831,22 @@
     </row>
     <row r="40" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E40" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H40" s="19" t="s">
         <v>17</v>
@@ -9291,22 +13854,22 @@
     </row>
     <row r="41" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E41" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>17</v>
@@ -9314,22 +13877,22 @@
     </row>
     <row r="42" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E42" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>17</v>
@@ -9337,22 +13900,22 @@
     </row>
     <row r="43" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E43" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>17</v>
@@ -9360,22 +13923,22 @@
     </row>
     <row r="44" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E44" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>17</v>
@@ -9383,22 +13946,22 @@
     </row>
     <row r="45" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>176</v>
-      </c>
       <c r="E45" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>17</v>
@@ -9406,22 +13969,22 @@
     </row>
     <row r="46" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="E46" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="F46" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>17</v>
@@ -9429,22 +13992,22 @@
     </row>
     <row r="47" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>186</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>17</v>
@@ -9452,22 +14015,22 @@
     </row>
     <row r="48" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="E48" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>192</v>
-      </c>
       <c r="F48" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>17</v>
@@ -9475,22 +14038,22 @@
     </row>
     <row r="49" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="E49" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>17</v>
@@ -9498,22 +14061,22 @@
     </row>
     <row r="50" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="E50" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>17</v>
@@ -9521,22 +14084,22 @@
     </row>
     <row r="51" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>191</v>
-      </c>
       <c r="E51" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>30</v>
@@ -9544,22 +14107,22 @@
     </row>
     <row r="52" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>198</v>
-      </c>
       <c r="F52" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H52" s="19" t="s">
         <v>30</v>
@@ -9567,22 +14130,22 @@
     </row>
     <row r="53" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>30</v>
@@ -9590,22 +14153,22 @@
     </row>
     <row r="54" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E54" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>30</v>
@@ -9613,22 +14176,22 @@
     </row>
     <row r="55" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E55" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>30</v>
@@ -9639,22 +14202,22 @@
         <v>28</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E56" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>30</v>
@@ -9665,22 +14228,22 @@
         <v>29</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E57" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>30</v>
@@ -9691,22 +14254,22 @@
         <v>30</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>206</v>
-      </c>
       <c r="F58" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>17</v>
@@ -9717,22 +14280,22 @@
         <v>31</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>17</v>
@@ -9743,22 +14306,22 @@
         <v>32</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>17</v>
@@ -9769,22 +14332,22 @@
         <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>17</v>
@@ -9795,22 +14358,22 @@
         <v>34</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H62" s="19" t="s">
         <v>17</v>
@@ -9818,22 +14381,22 @@
     </row>
     <row r="63" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H63" s="19" t="s">
         <v>17</v>
@@ -9841,22 +14404,22 @@
     </row>
     <row r="64" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>17</v>
@@ -9867,7 +14430,7 @@
     </row>
     <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>

--- a/testing/testcases.xlsx
+++ b/testing/testcases.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project-g6t6\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374D37F-5003-4959-AAB1-D3BC55EE82B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED3D722-3394-4925-A524-D876F1BBD75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration1-Manual-Login" sheetId="1" r:id="rId1"/>
     <sheet name="Iteration2-Manual-Bootstrap-Bid" sheetId="2" r:id="rId2"/>
-    <sheet name="Iteration2-JSON-Bootstrap Bid" sheetId="5" r:id="rId3"/>
-    <sheet name="Iteration3-Manual-Function_test" sheetId="4" r:id="rId4"/>
+    <sheet name="Iteration3-Manual-Function_test" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjXtvty9ZgKe68ogL/9wV6fT8SWkQ=="/>
     </ext>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="333">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -563,6 +568,12 @@
 course:IS209
 section:S1
 bid amount:20</t>
+  </si>
+  <si>
+    <t>1) Key in "gary.ng.2009" in username field 2) Key in "qwerty134" in password field 3) Click Login 4) Key in Course: IS209, Section: S1 5) Key in e$:20 6) Click Add a Bid.</t>
+  </si>
+  <si>
+    <t>Bid accepted'</t>
   </si>
   <si>
     <t>Bidding(drop bid)</t>
@@ -1053,9 +1064,6 @@
     <t xml:space="preserve">Validate that student can add a bid in round 2 from different school successfully </t>
   </si>
   <si>
-    <t>Round 2 Resolution</t>
-  </si>
-  <si>
     <t>Bidding(add)</t>
   </si>
   <si>
@@ -1070,14 +1078,6 @@
 course:IS200
 section:S1
 bid amount:20</t>
-  </si>
-  <si>
-    <t>1) Key in "gary.ng.2009" in username field
-2) Key in "qwerty134" in password field
-3) Click Login
-4) Key in Course: IS209, Section: S1
-5) Key in e$: 20
-6) Click Add a Bid.</t>
   </si>
   <si>
     <t>1) Key in "dawn.ng.2009" in username field
@@ -1121,13 +1121,6 @@
 6) Click Add a Bid.</t>
   </si>
   <si>
-    <t>userid:parker.ng.2009
-password:qwerty143
-course: IS1000
-section:S10
-bid amount:10</t>
-  </si>
-  <si>
     <t>1) Key in "parker.ng.2009" in username field
 2) Key in "qwerty143" in password field
 3) Click Login
@@ -1226,22 +1219,7 @@
 6) Click Add a Bid.</t>
   </si>
   <si>
-    <t>userid:gary.ng.2009
-password:qwerty134
-course:IS100
-section:S1
-bid amount:15</t>
-  </si>
-  <si>
     <t>"Please enter a value that is more than e$21."</t>
-  </si>
-  <si>
-    <t>1) Key in "gary.ng.2009" in username field
-2) Key in "qwerty134" in password field
-3) Click Login
-4) Select Course: IS100, Section: S1 
-5) Key in e$: 15
-6) Click Add a Bid.</t>
   </si>
   <si>
     <t xml:space="preserve">userid:parker.ng.2009
@@ -1293,347 +1271,134 @@
 5) Click Drop a section.</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>Expected Results</t>
-  </si>
-  <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>{
- "status": "success"
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["invalid section"]
-}</t>
-  </si>
-  <si>
-    <t>userid:ben.ng.2009 password:qwerty129  course: IS1111 section:S1 
+    <t>userid:parker.ng.2009
+password:qwerty143
+course: IS1000
+section:S1
+bid amount:10</t>
+  </si>
+  <si>
+    <t>"invalid course"</t>
+  </si>
+  <si>
+    <t>"insufficient e$"</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009
+password:qwerty129
+course: IS105
+section:S1
+bid amount:--20</t>
+  </si>
+  <si>
+    <t>1) Key in "ben.ng.2009" in username field
+2) Key in "qwerty129" in password field
+3) Click Login
+4) Key in Course: IS105, Section: S1
+5) Key in e$: --20
+6) Click Add a Bid.</t>
+  </si>
+  <si>
+    <t>"Please enter a number."</t>
+  </si>
+  <si>
+    <t>Validate if user (student) bid twice for same course but different section in the same round, the bid amount will be updated and no duplicate records</t>
+  </si>
+  <si>
+    <t>"Bid was added successfully!"</t>
+  </si>
+  <si>
+    <t>userid:parker.ng.2009
+password:qwerty143
+course: IS100
+section:S2
+bid amount:10</t>
+  </si>
+  <si>
+    <t>1) Key in "parker.ng.2009" in username field
+2) Key in "qwerty143" in password field
+3) Click Login
+4) Key in Course: IS100, Section: S2
+5) Key in e$: 10
+6) Click Add a Bid.</t>
+  </si>
+  <si>
+    <t>userid:gary.ng.2009
+password:qwerty134
+course:IS103
+section:S1
 bid amount:20</t>
   </si>
   <si>
-    <t>{
- "status": "error",
- "message":["invalid course"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["class timetable clash"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["exam timetable clash"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["course completed"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["incomplete prerequisites"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["insufficient e$"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["section limit reached"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["invalid amount"]
-}</t>
-  </si>
-  <si>
-    <t>{
- "status": "error",
- "message":["not own school course"]
-}</t>
-  </si>
-  <si>
-    <t>rows successfully loaded for each files
-student.csv 26
-course.csv24
-section.csv35
-prerequisite.csv 8
-course_completed.csv 4
-bid.csv : 11</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-student.csv: 26
-course.csv: 24
-section.csv:35
-prerequisite.csv:8
-course_completed.csv:4
-bid.csv:11</t>
-  </si>
-  <si>
-    <t>rows loaded:
-student.csv :0
-course.csv :0
-section.csv:0
-prerequisite.csv:0
-course_completed.csv :0
-Error Message: File not found</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-student.csv: 0
-course.csv: 0
-section.csv:0
-prerequisite.csv:0
-course_completed.csv:0
-bid.csv:0 
-No correct error messages display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the student csv file is not loaded successfully  with duplicate userid, incorrect e-dollar amount, empty password and userid. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rows loaded for student csv: 20
--row2 : 'blank password';
--row3 : 'invalid userid' [exceed 128 characters];
--row4 : 'invalid password' [exceed 128 characters];
--row5 : 'invalid name'[exceed 100 characters] , 'invalid e-dollar'[value with more than 2 decimals];
--row6 : 'invalid e-dollar'[negative value];
--row28 : 'duplicate userid' [two same userid];
--row20 : 'blank userid','blank name','blank school','blank edollar';
-</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-student.csv: 20
-Errors: 
-line2 - 'blank password';
-line3 - 'invalid userid';
-line4 - 'invalid password';
-line5 - 'invalid e-dollar','invalid name';
-line6 - 'invalid e-dollar';
-line20 - 'blank userid, name, school, edollar';
-line28 - 'duplicate userid';</t>
-  </si>
-  <si>
-    <t>Validate that the course csv file is not loaded successfully as exam date, exam start and end time are written in an incorrect format, one course description filed exceed 100 characters and one course title exceed 100 characters. File has empty  field and exam end time is  not later than the exam start time.</t>
-  </si>
-  <si>
-    <t>row loaded successfully for course.csv:16
--row 2: 'invalid exam date', 'invalid exam start','invalid exam end'[incorrect format];
--row 3: 'invalid title', 'invalid description'[exceed 100 characters];
--row 4: 'invalid description'[exceed 100 characters];
--row 5: 'invalid exam end' [exam start time is later than end time]
--row 6: 'invalid exam date'[incorrect format];
--row 15: 'blank course';
--row 16: 'blank school','blank exam date','blank end time';
--row 17: 'invalid exam end' [exam start time is later than end time]</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-course.csv: 18
-Errors: 
-line2 - 'invalid exam date,invalid excam start, invalid exam end';
-line3 - 'invalid title, invalid description';
-line4 - 'invalid description';
-line6 - 'invalid exam date';
-line15 - 'blank course';
-line16 - 'blank school, exam date, exam start';
-Missing : 
-line 5 and 17: 'invalid exam end';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the section csv file is not loaded successfully with empty field. File has invalid course which is not found in course file. Start and end time are written in an incorrect format and end tiem is not later than start time. Section name is not started with 'S'. Instructor name and venue exceed 100 characters. Size of section is not a positive number. </t>
-  </si>
-  <si>
-    <t>rows loaded successfully for section csv: 26
--row 2: 'invalid course'[course is not found in course csv];
--row 3: 'invalid section' [section is not start with 'S'];
--row 5: 'invalid start'[Not a time value];
--row 6: 'invalid instructor' [exceed 100 characters];
--row 7: 'invalid venue'[exceed 100 characters];
--row 8: 'invalid start'[start time is later than end time];
--row 9:'invalid size'[negative value];
--row 10: 'invalid day'[incorrect format];
--row 16: 'blank course','blank section','blank instructor';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lines Loaded: 
-section.csv: 26
-Errors: 
-line2 - 'invalid course';
-line3 - 'invalid section';
-line5 - 'invalid start';
-line6 - 'invalid instructor';
-line7 - 'invalid venue';
-line8 - 'invalid start';
-line9 - 'invalid size';
-line10 - 'invalid day';
-line 16 - 'blank course,school,exam start';
-</t>
-  </si>
-  <si>
-    <t>Validate that the prerequisite csv file is not loaded successfully with empty course and code field, not found course and prerequisite.</t>
-  </si>
-  <si>
-    <t>row loaded successfullly for prerequisite csv: 3
--row 2: 'prerequisite field blank';
--row 3: 'invalid course'[course not found in course csv];
--row 4: 'invalid prerequisite' [course not found in course csv];
--row 7: 'invalid course', 'invalid prerequisite';
--row 8: 'course field blank';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lines Loaded: 
-prerequisite.csv: 3
-Errors: 
-line2 - 'blank prerequisite';
-line3 - 'invalid course';
-line4 - 'invalid prerequisite';
-line7 - 'invalid course, invalid prerequisite';
-line8 - 'blank course';
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the course_completed csv file is not loaded succefully with empty userid and code field, not found userid and course code. File has invalid input as user does not fulfil the prerequisite </t>
-  </si>
-  <si>
-    <t>rows successfully loaded for course_completed.csv: 1
--row 2: 'invalid course'[course not found in course csv];
--row 3: 'blank course';
--row 4: 'invalid course completed'[the pre-requisite course has yet to be attempted];
--row 6: 'invalid userid'[userid(case-insensitive) not found in student csv];
--row 7: 'invalid userid'[userid not found in student csv];
--row 8: 'blank userid';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lines Loaded: 
-course_completed.csv: 2
-Errors: 
-line2 - 'invalid course';
-line3 - 'blank';
-line7 - 'invalid userid';
-line8 - 'blank';
-line4 - 'invalid course completed';
-Missing error:
-line 6: 'invalid userid'(case-sensitive);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the Bid csv file is not loaded successfully with empty fields. Userid is not found in student csv. The amount is less than 10 or not an positive value or has more than 2 decimal places. Course and section is not found in the course and section file. </t>
-  </si>
-  <si>
-    <t>row successfully loaded for bid.csv:  8
--row 5: 'blank userid';
--row 6: 'blank code','blank section';
--row 7: 'invalid amount'[amount less than 10];
--row 8: 'invalid amount'[negative amount];
--row 23: 'invalid section'[not found in section.csv];
--row 24:'invalid userid'[not found in student.csv];</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-bid.csv : 23
-No error!
-Database: bid line loaded - 17</t>
-  </si>
-  <si>
-    <t>Validate that the Bid csv file is not loaded successfully. 
-1 .User has more than 5 bids.
-2. User has completed the course
-3. User has insufficient e-dollar to bid that section
-4. User has not completed the prererquisites for that course
-5. User's class timetable and exam timetable of previous bid clash with current bid
-6. User bid a module which is not provided by his school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row successfully loaded for bid.csv:15
--row 31: 'section limit reached'[same user has more than 5bids];
--row 2: 'course completed';
--row 4: 'class tiemtable clash' [clash with row 3];
--row 10: 'exam timetable clash' [clash with row 9];
--row 16: 'incomplete prerequisite';
--row 18: 'not enough e-dollar';
--row 32: 'incomplete prerequisite';
-</t>
-  </si>
-  <si>
-    <t>Lines Loaded: 
-bid.csv : 30
-No error!
-Database: bid line loaded - 26</t>
-  </si>
-  <si>
-    <t>251-update-bid</t>
-  </si>
-  <si>
-    <t>252-update-bid</t>
-  </si>
-  <si>
-    <t>253-update-bid</t>
-  </si>
-  <si>
-    <t>265-update-bid</t>
-  </si>
-  <si>
-    <t>301-delete-bid</t>
-  </si>
-  <si>
-    <t>303-delete-bid</t>
-  </si>
-  <si>
-    <t>302-delete-bid</t>
-  </si>
-  <si>
-    <t>254-update-bid</t>
-  </si>
-  <si>
-    <t>255-update-bid</t>
-  </si>
-  <si>
-    <t>256-update-bid</t>
-  </si>
-  <si>
-    <t>257-update-bid</t>
-  </si>
-  <si>
-    <t>258-update-bid</t>
-  </si>
-  <si>
-    <t>259-update-bid</t>
-  </si>
-  <si>
-    <t>260-update-bid</t>
-  </si>
-  <si>
-    <t>261-update-bid</t>
-  </si>
-  <si>
-    <t>262-update-bid</t>
-  </si>
-  <si>
-    <t>263-update-bid</t>
-  </si>
-  <si>
-    <t>264-update-bid</t>
+    <t>1) Key in "gary.ng.2009" in username field
+2) Key in "qwerty134" in password field
+3) Click Login
+4) Key in Course: IS103, Section: S1
+5) Key in e$: 20
+6) Click Add a Bid.</t>
+  </si>
+  <si>
+    <t>"No vacancy"</t>
+  </si>
+  <si>
+    <t>userid:jerry.ng.2009
+password:qwerty137
+course:IS100
+section:S1
+bid amount:10</t>
+  </si>
+  <si>
+    <t>1) Key in "jerry.ng.2009" in username field
+2) Key in "qwerty137" in password field
+3) Click Login
+4) Select Course: IS100, Section: S1 
+5) Key in e$: 10
+6) Click Add a Bid.</t>
+  </si>
+  <si>
+    <t>"incomplete prerequisites"</t>
+  </si>
+  <si>
+    <t>Validate that after bootstrap admin can stop round 1 and start round 2</t>
+  </si>
+  <si>
+    <t>Admin(Bootstrap)</t>
+  </si>
+  <si>
+    <t>userid:admin
+password:adminbios</t>
+  </si>
+  <si>
+    <t>1) Key in "admin" in username field
+2) Key in "adminbios" in password field
+3) Click Login
+4) Choose a zip file from computer to upload 
+5) Click import
+6) Click Home
+7) Click stop for round1
+8) Click start for round 2</t>
+  </si>
+  <si>
+    <t>round1 stop and round 2 start</t>
+  </si>
+  <si>
+    <t>Check if student can drop a section with correct course code and section number in round 1</t>
+  </si>
+  <si>
+    <t>Check if student can drop a bid automatically after the round end and get the refund</t>
+  </si>
+  <si>
+    <t>1) Key in "jerry.ng.2009" in username field
+2) Key in "qwerty137" in password field
+3) Click Login
+4) Check the remaining amount
+5) Click Drop a section to check the enrolled section</t>
+  </si>
+  <si>
+    <t>"The successful bid was dropped automatically and the user will get the refund"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unsuccessful bid make the user enrolled </t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1475,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1727,6 +1492,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1824,11 +1595,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1895,62 +1665,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B0114881-A1A9-43B1-B085-37A183B248D1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,55 +1689,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304380</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>216877</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE5B15E-9E69-419E-A6A0-EAB351DBC691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17223154" y="508000"/>
-          <a:ext cx="7006072" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5261,10 +4938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC1027"/>
+  <dimension ref="A1:AC1028"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5784,53 +5461,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="D20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>17</v>
@@ -5841,22 +5518,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
@@ -5866,197 +5543,197 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="F22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="G22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="16"/>
-    </row>
-    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="34"/>
+    <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="31"/>
       <c r="AC25" s="16"/>
     </row>
-    <row r="26" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="16"/>
+    </row>
+    <row r="27" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="7" t="s">
         <v>236</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
-        <v>3</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="E28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>237</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>17</v>
@@ -6064,45 +5741,45 @@
     </row>
     <row r="30" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="F30" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>241</v>
@@ -6110,57 +5787,57 @@
       <c r="G31" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="C33" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>17</v>
@@ -6168,25 +5845,25 @@
     </row>
     <row r="34" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="F34" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>17</v>
@@ -6194,25 +5871,25 @@
     </row>
     <row r="35" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>17</v>
@@ -6220,77 +5897,77 @@
     </row>
     <row r="36" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>234</v>
+        <v>247</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>173</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C38" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>174</v>
-      </c>
       <c r="E38" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>17</v>
@@ -6298,25 +5975,25 @@
     </row>
     <row r="39" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>175</v>
-      </c>
       <c r="F39" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>17</v>
@@ -6324,25 +6001,25 @@
     </row>
     <row r="40" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>17</v>
@@ -6350,25 +6027,25 @@
     </row>
     <row r="41" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>17</v>
@@ -6376,25 +6053,25 @@
     </row>
     <row r="42" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>17</v>
@@ -6402,25 +6079,25 @@
     </row>
     <row r="43" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>17</v>
@@ -6428,25 +6105,25 @@
     </row>
     <row r="44" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>183</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>17</v>
@@ -6454,25 +6131,25 @@
     </row>
     <row r="45" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C45" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="E45" s="19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>17</v>
@@ -6480,25 +6157,25 @@
     </row>
     <row r="46" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
-        <v>20</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>187</v>
+        <v>19</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>189</v>
+      <c r="D46" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>17</v>
@@ -6506,25 +6183,25 @@
     </row>
     <row r="47" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C47" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>17</v>
@@ -6532,45 +6209,45 @@
     </row>
     <row r="48" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>190</v>
-      </c>
       <c r="F48" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>22</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>189</v>
+        <v>194</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>260</v>
@@ -6578,285 +6255,285 @@
       <c r="G49" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>22</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+    <row r="51" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
         <v>23</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F50" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
-        <v>24</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="20" t="s">
+      <c r="D51" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="E51" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C52" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H52" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
+        <v>29</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="19" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>30</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>31</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="20" t="s">
+      <c r="D57" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="E57" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C58" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>204</v>
-      </c>
       <c r="F58" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>269</v>
@@ -6868,43 +6545,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+    <row r="61" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>34</v>
+      </c>
       <c r="B61" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F62" s="19" t="s">
         <v>270</v>
@@ -6916,144 +6595,121 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="21"/>
+    <row r="63" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="33"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="34"/>
+      <c r="A65" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="31"/>
       <c r="AC65" s="21"/>
     </row>
-    <row r="66" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
+    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="21"/>
+    </row>
+    <row r="67" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
         <v>1</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="C67" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="D67" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G66" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="E67" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-    </row>
-    <row r="67" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>2</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -7077,30 +6733,30 @@
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
     </row>
-    <row r="68" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="G68" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="H68" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -7124,30 +6780,30 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
     </row>
-    <row r="69" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>227</v>
+      <c r="G69" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -7171,30 +6827,30 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
     </row>
-    <row r="70" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="G70" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>216</v>
-      </c>
       <c r="H70" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -7220,10 +6876,10 @@
     </row>
     <row r="71" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>230</v>
@@ -7232,13 +6888,13 @@
         <v>231</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>17</v>
@@ -7265,8 +6921,52 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
     </row>
-    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
+    <row r="72" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22">
+        <v>6</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
     </row>
     <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
@@ -7835,8 +7535,8 @@
     <row r="261" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="7"/>
     </row>
-    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C262" s="14"/>
+    <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C262" s="7"/>
     </row>
     <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="14"/>
@@ -7865,7 +7565,9 @@
     <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="14"/>
     </row>
-    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C272" s="14"/>
+    </row>
     <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8621,11 +8323,12 @@
     <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:AB3"/>
-    <mergeCell ref="A24:AB25"/>
-    <mergeCell ref="A64:AB65"/>
+    <mergeCell ref="A25:AB26"/>
+    <mergeCell ref="A65:AB66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8633,4208 +8336,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B027-578B-4808-A9B1-240D96FAC986}">
-  <dimension ref="A1:AD1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6C661-1DC9-4757-AE25-6BF7B6BF2213}">
+  <dimension ref="A1:AC1028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.88671875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="32" style="40" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="40" customWidth="1"/>
-    <col min="8" max="30" width="8.6640625" style="40" customWidth="1"/>
-    <col min="31" max="16384" width="14.44140625" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-    </row>
-    <row r="2" spans="1:30" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-    </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-    </row>
-    <row r="4" spans="1:30" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-    </row>
-    <row r="5" spans="1:30" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-    </row>
-    <row r="6" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-    </row>
-    <row r="7" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-    </row>
-    <row r="8" spans="1:30" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-    </row>
-    <row r="9" spans="1:30" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-    </row>
-    <row r="10" spans="1:30" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-    </row>
-    <row r="11" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-    </row>
-    <row r="12" spans="1:30" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-    </row>
-    <row r="13" spans="1:30" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-    </row>
-    <row r="14" spans="1:30" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-    </row>
-    <row r="15" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-    </row>
-    <row r="16" spans="1:30" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-    </row>
-    <row r="17" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-    </row>
-    <row r="18" spans="1:30" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-    </row>
-    <row r="19" spans="1:30" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-    </row>
-    <row r="20" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-    </row>
-    <row r="21" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-    </row>
-    <row r="22" spans="1:30" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
-        <v>19</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-    </row>
-    <row r="23" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-    </row>
-    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-    </row>
-    <row r="26" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
-        <v>1</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="F26" s="49"/>
-    </row>
-    <row r="27" spans="1:30" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
-        <v>2</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27" s="49"/>
-    </row>
-    <row r="28" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
-        <v>3</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="49"/>
-    </row>
-    <row r="29" spans="1:30" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
-        <v>4</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="F29" s="49"/>
-    </row>
-    <row r="30" spans="1:30" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
-        <v>5</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="1:30" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
-        <v>6</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="49"/>
-    </row>
-    <row r="32" spans="1:30" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
-        <v>7</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="F32" s="49"/>
-    </row>
-    <row r="33" spans="1:30" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
-        <v>8</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="49"/>
-    </row>
-    <row r="34" spans="1:30" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
-        <v>9</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="F34" s="49"/>
-    </row>
-    <row r="35" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
-    </row>
-    <row r="36" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-    </row>
-    <row r="37" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-    </row>
-    <row r="38" spans="1:30" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
-        <v>1</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
-        <v>2</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
-        <v>3</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
-        <v>4</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56">
-        <v>5</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
-        <v>6</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
-    </row>
-    <row r="45" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
-    </row>
-    <row r="46" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
-    </row>
-    <row r="47" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-    </row>
-    <row r="48" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-    </row>
-    <row r="49" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-    </row>
-    <row r="50" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
-    </row>
-    <row r="51" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-    </row>
-    <row r="52" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
-    </row>
-    <row r="53" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-    </row>
-    <row r="54" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
-    </row>
-    <row r="55" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
-    </row>
-    <row r="56" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
-    </row>
-    <row r="57" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-    </row>
-    <row r="58" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-    </row>
-    <row r="59" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
-    </row>
-    <row r="60" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
-    </row>
-    <row r="61" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="49"/>
-    </row>
-    <row r="62" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="49"/>
-    </row>
-    <row r="63" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
-    </row>
-    <row r="64" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
-    </row>
-    <row r="65" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="49"/>
-    </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="49"/>
-    </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="49"/>
-    </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-    </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="49"/>
-    </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
-    </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="49"/>
-    </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="49"/>
-    </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-    </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
-    </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="49"/>
-    </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="49"/>
-    </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="49"/>
-    </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="49"/>
-    </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="49"/>
-    </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="49"/>
-    </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="49"/>
-    </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="49"/>
-    </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="49"/>
-    </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="49"/>
-    </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="49"/>
-    </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="49"/>
-    </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
-    </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="49"/>
-    </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="49"/>
-    </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="49"/>
-    </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="49"/>
-    </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="49"/>
-    </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="49"/>
-    </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="49"/>
-    </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="49"/>
-    </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="49"/>
-    </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="49"/>
-    </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-    </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="49"/>
-    </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-    </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="49"/>
-    </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-    </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="49"/>
-    </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-    </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="49"/>
-    </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-    </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="49"/>
-    </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-    </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="49"/>
-    </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-    </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="49"/>
-    </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="49"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="49"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="49"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="49"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="49"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="49"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="49"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="49"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="49"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="49"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="49"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="49"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="49"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="49"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="49"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="49"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="49"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="49"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="49"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="49"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="49"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="49"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="49"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="49"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="49"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="49"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="49"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="49"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="49"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="49"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="49"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="49"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="49"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="49"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="49"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="49"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="49"/>
-    </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="49"/>
-    </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="49"/>
-    </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="49"/>
-    </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="49"/>
-    </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="49"/>
-    </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="49"/>
-    </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="49"/>
-    </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="49"/>
-    </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="49"/>
-    </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="49"/>
-    </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="49"/>
-    </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="49"/>
-    </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="49"/>
-    </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="49"/>
-    </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="49"/>
-    </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="49"/>
-    </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="49"/>
-    </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="49"/>
-    </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="49"/>
-    </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="49"/>
-    </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="49"/>
-    </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="49"/>
-    </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="49"/>
-    </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="49"/>
-    </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="49"/>
-    </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="49"/>
-    </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="49"/>
-    </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="49"/>
-    </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="49"/>
-    </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="49"/>
-    </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="49"/>
-    </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="49"/>
-    </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="49"/>
-    </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="49"/>
-    </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="49"/>
-    </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="49"/>
-    </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="49"/>
-    </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="49"/>
-    </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="49"/>
-    </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="49"/>
-    </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="49"/>
-    </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="49"/>
-    </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="49"/>
-    </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="49"/>
-    </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="49"/>
-    </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="49"/>
-    </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="49"/>
-    </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="49"/>
-    </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="49"/>
-    </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="49"/>
-    </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="49"/>
-    </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="49"/>
-    </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="49"/>
-    </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="49"/>
-    </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="49"/>
-    </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="49"/>
-    </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="49"/>
-    </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="49"/>
-    </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="49"/>
-    </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="49"/>
-    </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="49"/>
-    </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="49"/>
-    </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="49"/>
-    </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="49"/>
-    </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="49"/>
-    </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="49"/>
-    </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="49"/>
-    </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="49"/>
-    </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="49"/>
-    </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="49"/>
-    </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="49"/>
-    </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="49"/>
-    </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="49"/>
-    </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="49"/>
-    </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="49"/>
-    </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="49"/>
-    </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="49"/>
-    </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="49"/>
-    </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="49"/>
-    </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="49"/>
-    </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="49"/>
-    </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="49"/>
-    </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="49"/>
-    </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="49"/>
-    </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="49"/>
-    </row>
-    <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="58"/>
-    </row>
-    <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="58"/>
-    </row>
-    <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="58"/>
-    </row>
-    <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="58"/>
-    </row>
-    <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="58"/>
-    </row>
-    <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="58"/>
-    </row>
-    <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="58"/>
-    </row>
-    <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="58"/>
-    </row>
-    <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="58"/>
-    </row>
-    <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="58"/>
-    </row>
-    <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="58"/>
-    </row>
-    <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="58"/>
-    </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="58"/>
-    </row>
-    <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="58"/>
-    </row>
-    <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="58"/>
-    </row>
-    <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="58"/>
-    </row>
-    <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="58"/>
-    </row>
-    <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="58"/>
-    </row>
-    <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="58"/>
-    </row>
-    <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="58"/>
-    </row>
-    <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="58"/>
-    </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="58"/>
-    </row>
-    <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="58"/>
-    </row>
-    <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="58"/>
-    </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="58"/>
-    </row>
-    <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="58"/>
-    </row>
-    <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="58"/>
-    </row>
-    <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="58"/>
-    </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="58"/>
-    </row>
-    <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="58"/>
-    </row>
-    <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="58"/>
-    </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="58"/>
-    </row>
-    <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="58"/>
-    </row>
-    <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="58"/>
-    </row>
-    <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="58"/>
-    </row>
-    <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="58"/>
-    </row>
-    <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="58"/>
-    </row>
-    <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="58"/>
-    </row>
-    <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="58"/>
-    </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="58"/>
-    </row>
-    <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="58"/>
-    </row>
-    <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="58"/>
-    </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="58"/>
-    </row>
-    <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="58"/>
-    </row>
-    <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="58"/>
-    </row>
-    <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="58"/>
-    </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="58"/>
-    </row>
-    <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="58"/>
-    </row>
-    <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="58"/>
-    </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="58"/>
-    </row>
-    <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="58"/>
-    </row>
-    <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="58"/>
-    </row>
-    <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="58"/>
-    </row>
-    <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="58"/>
-    </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="58"/>
-    </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="58"/>
-    </row>
-    <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="58"/>
-    </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="58"/>
-    </row>
-    <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="58"/>
-    </row>
-    <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="58"/>
-    </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="58"/>
-    </row>
-    <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="58"/>
-    </row>
-    <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="58"/>
-    </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="58"/>
-    </row>
-    <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="58"/>
-    </row>
-    <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="58"/>
-    </row>
-    <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="58"/>
-    </row>
-    <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="58"/>
-    </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="58"/>
-    </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="58"/>
-    </row>
-    <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="58"/>
-    </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="58"/>
-    </row>
-    <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="58"/>
-    </row>
-    <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="58"/>
-    </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="58"/>
-    </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="58"/>
-    </row>
-    <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="58"/>
-    </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="58"/>
-    </row>
-    <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="58"/>
-    </row>
-    <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="58"/>
-    </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="58"/>
-    </row>
-    <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="58"/>
-    </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="58"/>
-    </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="58"/>
-    </row>
-    <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="58"/>
-    </row>
-    <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="58"/>
-    </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="58"/>
-    </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="58"/>
-    </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="58"/>
-    </row>
-    <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="58"/>
-    </row>
-    <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="58"/>
-    </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="58"/>
-    </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="58"/>
-    </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="58"/>
-    </row>
-    <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="58"/>
-    </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="58"/>
-    </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="58"/>
-    </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="58"/>
-    </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="58"/>
-    </row>
-    <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="58"/>
-    </row>
-    <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="58"/>
-    </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="58"/>
-    </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="58"/>
-    </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="58"/>
-    </row>
-    <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="58"/>
-    </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="58"/>
-    </row>
-    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="58"/>
-    </row>
-    <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="58"/>
-    </row>
-    <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="58"/>
-    </row>
-    <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="58"/>
-    </row>
-    <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="58"/>
-    </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="58"/>
-    </row>
-    <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="58"/>
-    </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="58"/>
-    </row>
-    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="58"/>
-    </row>
-    <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="58"/>
-    </row>
-    <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="58"/>
-    </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="58"/>
-    </row>
-    <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="58"/>
-    </row>
-    <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="58"/>
-    </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="58"/>
-    </row>
-    <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="58"/>
-    </row>
-    <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="58"/>
-    </row>
-    <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="58"/>
-    </row>
-    <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="58"/>
-    </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="58"/>
-    </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="58"/>
-    </row>
-    <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="58"/>
-    </row>
-    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="58"/>
-    </row>
-    <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="58"/>
-    </row>
-    <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="58"/>
-    </row>
-    <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="58"/>
-    </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="58"/>
-    </row>
-    <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="58"/>
-    </row>
-    <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="58"/>
-    </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="58"/>
-    </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="58"/>
-    </row>
-    <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="58"/>
-    </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="58"/>
-    </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="58"/>
-    </row>
-    <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="58"/>
-    </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="58"/>
-    </row>
-    <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="58"/>
-    </row>
-    <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="58"/>
-    </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="58"/>
-    </row>
-    <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="58"/>
-    </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="58"/>
-    </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="58"/>
-    </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="58"/>
-    </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="58"/>
-    </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="58"/>
-    </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="58"/>
-    </row>
-    <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="58"/>
-    </row>
-    <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="58"/>
-    </row>
-    <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="58"/>
-    </row>
-    <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="58"/>
-    </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="58"/>
-    </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="58"/>
-    </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="58"/>
-    </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="58"/>
-    </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="58"/>
-    </row>
-    <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="58"/>
-    </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="58"/>
-    </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="58"/>
-    </row>
-    <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="58"/>
-    </row>
-    <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="58"/>
-    </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="58"/>
-    </row>
-    <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="58"/>
-    </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="58"/>
-    </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="58"/>
-    </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="58"/>
-    </row>
-    <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="58"/>
-    </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="58"/>
-    </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="58"/>
-    </row>
-    <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="58"/>
-    </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="58"/>
-    </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="58"/>
-    </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="58"/>
-    </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="58"/>
-    </row>
-    <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="58"/>
-    </row>
-    <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="58"/>
-    </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="58"/>
-    </row>
-    <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="58"/>
-    </row>
-    <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="58"/>
-    </row>
-    <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="58"/>
-    </row>
-    <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="58"/>
-    </row>
-    <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="58"/>
-    </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="58"/>
-    </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="58"/>
-    </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="58"/>
-    </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="58"/>
-    </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" s="58"/>
-    </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="58"/>
-    </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="58"/>
-    </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="58"/>
-    </row>
-    <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="58"/>
-    </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="58"/>
-    </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="58"/>
-    </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="58"/>
-    </row>
-    <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="58"/>
-    </row>
-    <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="58"/>
-    </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="58"/>
-    </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="58"/>
-    </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="58"/>
-    </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="58"/>
-    </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="58"/>
-    </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="58"/>
-    </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="58"/>
-    </row>
-    <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="58"/>
-    </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="58"/>
-    </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="58"/>
-    </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="58"/>
-    </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="58"/>
-    </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="58"/>
-    </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="58"/>
-    </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="58"/>
-    </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="58"/>
-    </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="58"/>
-    </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="58"/>
-    </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B453" s="58"/>
-    </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="58"/>
-    </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="58"/>
-    </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B456" s="58"/>
-    </row>
-    <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B457" s="58"/>
-    </row>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B458" s="58"/>
-    </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B459" s="58"/>
-    </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="58"/>
-    </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="58"/>
-    </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="58"/>
-    </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="58"/>
-    </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="58"/>
-    </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="58"/>
-    </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="58"/>
-    </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="58"/>
-    </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="58"/>
-    </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="58"/>
-    </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="58"/>
-    </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="58"/>
-    </row>
-    <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="58"/>
-    </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="58"/>
-    </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="58"/>
-    </row>
-    <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="58"/>
-    </row>
-    <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="58"/>
-    </row>
-    <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="58"/>
-    </row>
-    <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="58"/>
-    </row>
-    <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="58"/>
-    </row>
-    <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B480" s="58"/>
-    </row>
-    <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B481" s="58"/>
-    </row>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="58"/>
-    </row>
-    <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="58"/>
-    </row>
-    <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B484" s="58"/>
-    </row>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="58"/>
-    </row>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="58"/>
-    </row>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="58"/>
-    </row>
-    <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="58"/>
-    </row>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="58"/>
-    </row>
-    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="58"/>
-    </row>
-    <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="58"/>
-    </row>
-    <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="58"/>
-    </row>
-    <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="58"/>
-    </row>
-    <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="58"/>
-    </row>
-    <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B495" s="58"/>
-    </row>
-    <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="58"/>
-    </row>
-    <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="58"/>
-    </row>
-    <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B498" s="58"/>
-    </row>
-    <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="58"/>
-    </row>
-    <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B500" s="58"/>
-    </row>
-    <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B501" s="58"/>
-    </row>
-    <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="58"/>
-    </row>
-    <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B503" s="58"/>
-    </row>
-    <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="58"/>
-    </row>
-    <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B505" s="58"/>
-    </row>
-    <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="58"/>
-    </row>
-    <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B507" s="58"/>
-    </row>
-    <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="58"/>
-    </row>
-    <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="58"/>
-    </row>
-    <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="58"/>
-    </row>
-    <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="58"/>
-    </row>
-    <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="58"/>
-    </row>
-    <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="58"/>
-    </row>
-    <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="58"/>
-    </row>
-    <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="58"/>
-    </row>
-    <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B516" s="58"/>
-    </row>
-    <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B517" s="58"/>
-    </row>
-    <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="58"/>
-    </row>
-    <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B519" s="58"/>
-    </row>
-    <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B520" s="58"/>
-    </row>
-    <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="58"/>
-    </row>
-    <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B522" s="58"/>
-    </row>
-    <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B523" s="58"/>
-    </row>
-    <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="58"/>
-    </row>
-    <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="58"/>
-    </row>
-    <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="58"/>
-    </row>
-    <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B527" s="58"/>
-    </row>
-    <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="58"/>
-    </row>
-    <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B529" s="58"/>
-    </row>
-    <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="58"/>
-    </row>
-    <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="58"/>
-    </row>
-    <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B532" s="58"/>
-    </row>
-    <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="58"/>
-    </row>
-    <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B534" s="58"/>
-    </row>
-    <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="58"/>
-    </row>
-    <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B536" s="58"/>
-    </row>
-    <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="58"/>
-    </row>
-    <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B538" s="58"/>
-    </row>
-    <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="58"/>
-    </row>
-    <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="58"/>
-    </row>
-    <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B541" s="58"/>
-    </row>
-    <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B542" s="58"/>
-    </row>
-    <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B543" s="58"/>
-    </row>
-    <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B544" s="58"/>
-    </row>
-    <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B545" s="58"/>
-    </row>
-    <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="58"/>
-    </row>
-    <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="58"/>
-    </row>
-    <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="58"/>
-    </row>
-    <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="58"/>
-    </row>
-    <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="58"/>
-    </row>
-    <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="58"/>
-    </row>
-    <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="58"/>
-    </row>
-    <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B553" s="58"/>
-    </row>
-    <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B554" s="58"/>
-    </row>
-    <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B555" s="58"/>
-    </row>
-    <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B556" s="58"/>
-    </row>
-    <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B557" s="58"/>
-    </row>
-    <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B558" s="58"/>
-    </row>
-    <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B559" s="58"/>
-    </row>
-    <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B560" s="58"/>
-    </row>
-    <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B561" s="58"/>
-    </row>
-    <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B562" s="58"/>
-    </row>
-    <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B563" s="58"/>
-    </row>
-    <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B564" s="58"/>
-    </row>
-    <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B565" s="58"/>
-    </row>
-    <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="58"/>
-    </row>
-    <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="58"/>
-    </row>
-    <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="58"/>
-    </row>
-    <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="58"/>
-    </row>
-    <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="58"/>
-    </row>
-    <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="58"/>
-    </row>
-    <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="58"/>
-    </row>
-    <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B573" s="58"/>
-    </row>
-    <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B574" s="58"/>
-    </row>
-    <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B575" s="58"/>
-    </row>
-    <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B576" s="58"/>
-    </row>
-    <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="58"/>
-    </row>
-    <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B578" s="58"/>
-    </row>
-    <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B579" s="58"/>
-    </row>
-    <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B580" s="58"/>
-    </row>
-    <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B581" s="58"/>
-    </row>
-    <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="58"/>
-    </row>
-    <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B583" s="58"/>
-    </row>
-    <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B584" s="58"/>
-    </row>
-    <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B585" s="58"/>
-    </row>
-    <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B586" s="58"/>
-    </row>
-    <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B587" s="58"/>
-    </row>
-    <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B588" s="58"/>
-    </row>
-    <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B589" s="58"/>
-    </row>
-    <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B590" s="58"/>
-    </row>
-    <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B591" s="58"/>
-    </row>
-    <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B592" s="58"/>
-    </row>
-    <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="58"/>
-    </row>
-    <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B594" s="58"/>
-    </row>
-    <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B595" s="58"/>
-    </row>
-    <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B596" s="58"/>
-    </row>
-    <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B597" s="58"/>
-    </row>
-    <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B598" s="58"/>
-    </row>
-    <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B599" s="58"/>
-    </row>
-    <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="58"/>
-    </row>
-    <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B601" s="58"/>
-    </row>
-    <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B602" s="58"/>
-    </row>
-    <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B603" s="58"/>
-    </row>
-    <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B604" s="58"/>
-    </row>
-    <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B605" s="58"/>
-    </row>
-    <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B606" s="58"/>
-    </row>
-    <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B607" s="58"/>
-    </row>
-    <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B608" s="58"/>
-    </row>
-    <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B609" s="58"/>
-    </row>
-    <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B610" s="58"/>
-    </row>
-    <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B611" s="58"/>
-    </row>
-    <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B612" s="58"/>
-    </row>
-    <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B613" s="58"/>
-    </row>
-    <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B614" s="58"/>
-    </row>
-    <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B615" s="58"/>
-    </row>
-    <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B616" s="58"/>
-    </row>
-    <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B617" s="58"/>
-    </row>
-    <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B618" s="58"/>
-    </row>
-    <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B619" s="58"/>
-    </row>
-    <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B620" s="58"/>
-    </row>
-    <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B621" s="58"/>
-    </row>
-    <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B622" s="58"/>
-    </row>
-    <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B623" s="58"/>
-    </row>
-    <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B624" s="58"/>
-    </row>
-    <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B625" s="58"/>
-    </row>
-    <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B626" s="58"/>
-    </row>
-    <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="58"/>
-    </row>
-    <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B628" s="58"/>
-    </row>
-    <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B629" s="58"/>
-    </row>
-    <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B630" s="58"/>
-    </row>
-    <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B631" s="58"/>
-    </row>
-    <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B632" s="58"/>
-    </row>
-    <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B633" s="58"/>
-    </row>
-    <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B634" s="58"/>
-    </row>
-    <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B635" s="58"/>
-    </row>
-    <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B636" s="58"/>
-    </row>
-    <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="58"/>
-    </row>
-    <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B638" s="58"/>
-    </row>
-    <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B639" s="58"/>
-    </row>
-    <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B640" s="58"/>
-    </row>
-    <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B641" s="58"/>
-    </row>
-    <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B642" s="58"/>
-    </row>
-    <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B643" s="58"/>
-    </row>
-    <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B644" s="58"/>
-    </row>
-    <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B645" s="58"/>
-    </row>
-    <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="58"/>
-    </row>
-    <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B647" s="58"/>
-    </row>
-    <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="58"/>
-    </row>
-    <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="58"/>
-    </row>
-    <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B650" s="58"/>
-    </row>
-    <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B651" s="58"/>
-    </row>
-    <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B652" s="58"/>
-    </row>
-    <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B653" s="58"/>
-    </row>
-    <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="58"/>
-    </row>
-    <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B655" s="58"/>
-    </row>
-    <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B656" s="58"/>
-    </row>
-    <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B657" s="58"/>
-    </row>
-    <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="58"/>
-    </row>
-    <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B659" s="58"/>
-    </row>
-    <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B660" s="58"/>
-    </row>
-    <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B661" s="58"/>
-    </row>
-    <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="58"/>
-    </row>
-    <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B663" s="58"/>
-    </row>
-    <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="58"/>
-    </row>
-    <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="58"/>
-    </row>
-    <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="58"/>
-    </row>
-    <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B667" s="58"/>
-    </row>
-    <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B668" s="58"/>
-    </row>
-    <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="58"/>
-    </row>
-    <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B670" s="58"/>
-    </row>
-    <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="58"/>
-    </row>
-    <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B672" s="58"/>
-    </row>
-    <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B673" s="58"/>
-    </row>
-    <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="58"/>
-    </row>
-    <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="58"/>
-    </row>
-    <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B676" s="58"/>
-    </row>
-    <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B677" s="58"/>
-    </row>
-    <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B678" s="58"/>
-    </row>
-    <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B679" s="58"/>
-    </row>
-    <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B680" s="58"/>
-    </row>
-    <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="58"/>
-    </row>
-    <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B682" s="58"/>
-    </row>
-    <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B683" s="58"/>
-    </row>
-    <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B684" s="58"/>
-    </row>
-    <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B685" s="58"/>
-    </row>
-    <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B686" s="58"/>
-    </row>
-    <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B687" s="58"/>
-    </row>
-    <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="58"/>
-    </row>
-    <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B689" s="58"/>
-    </row>
-    <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B690" s="58"/>
-    </row>
-    <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B691" s="58"/>
-    </row>
-    <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B692" s="58"/>
-    </row>
-    <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B693" s="58"/>
-    </row>
-    <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B694" s="58"/>
-    </row>
-    <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B695" s="58"/>
-    </row>
-    <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B696" s="58"/>
-    </row>
-    <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B697" s="58"/>
-    </row>
-    <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B698" s="58"/>
-    </row>
-    <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B699" s="58"/>
-    </row>
-    <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B700" s="58"/>
-    </row>
-    <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B701" s="58"/>
-    </row>
-    <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B702" s="58"/>
-    </row>
-    <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B703" s="58"/>
-    </row>
-    <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="58"/>
-    </row>
-    <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="58"/>
-    </row>
-    <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B706" s="58"/>
-    </row>
-    <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B707" s="58"/>
-    </row>
-    <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B708" s="58"/>
-    </row>
-    <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B709" s="58"/>
-    </row>
-    <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B710" s="58"/>
-    </row>
-    <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B711" s="58"/>
-    </row>
-    <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="58"/>
-    </row>
-    <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="58"/>
-    </row>
-    <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="58"/>
-    </row>
-    <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B715" s="58"/>
-    </row>
-    <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B716" s="58"/>
-    </row>
-    <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B717" s="58"/>
-    </row>
-    <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B718" s="58"/>
-    </row>
-    <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B719" s="58"/>
-    </row>
-    <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B720" s="58"/>
-    </row>
-    <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="58"/>
-    </row>
-    <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B722" s="58"/>
-    </row>
-    <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B723" s="58"/>
-    </row>
-    <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B724" s="58"/>
-    </row>
-    <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="58"/>
-    </row>
-    <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="58"/>
-    </row>
-    <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="58"/>
-    </row>
-    <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B728" s="58"/>
-    </row>
-    <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B729" s="58"/>
-    </row>
-    <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B730" s="58"/>
-    </row>
-    <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B731" s="58"/>
-    </row>
-    <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B732" s="58"/>
-    </row>
-    <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B733" s="58"/>
-    </row>
-    <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B734" s="58"/>
-    </row>
-    <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B735" s="58"/>
-    </row>
-    <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B736" s="58"/>
-    </row>
-    <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B737" s="58"/>
-    </row>
-    <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B738" s="58"/>
-    </row>
-    <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B739" s="58"/>
-    </row>
-    <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B740" s="58"/>
-    </row>
-    <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="58"/>
-    </row>
-    <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B742" s="58"/>
-    </row>
-    <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B743" s="58"/>
-    </row>
-    <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B744" s="58"/>
-    </row>
-    <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B745" s="58"/>
-    </row>
-    <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B746" s="58"/>
-    </row>
-    <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B747" s="58"/>
-    </row>
-    <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="58"/>
-    </row>
-    <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B749" s="58"/>
-    </row>
-    <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B750" s="58"/>
-    </row>
-    <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B751" s="58"/>
-    </row>
-    <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B752" s="58"/>
-    </row>
-    <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B753" s="58"/>
-    </row>
-    <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B754" s="58"/>
-    </row>
-    <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B755" s="58"/>
-    </row>
-    <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B756" s="58"/>
-    </row>
-    <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B757" s="58"/>
-    </row>
-    <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B758" s="58"/>
-    </row>
-    <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B759" s="58"/>
-    </row>
-    <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B760" s="58"/>
-    </row>
-    <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B761" s="58"/>
-    </row>
-    <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B762" s="58"/>
-    </row>
-    <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B763" s="58"/>
-    </row>
-    <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B764" s="58"/>
-    </row>
-    <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B765" s="58"/>
-    </row>
-    <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B766" s="58"/>
-    </row>
-    <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B767" s="58"/>
-    </row>
-    <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B768" s="58"/>
-    </row>
-    <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B769" s="58"/>
-    </row>
-    <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B770" s="58"/>
-    </row>
-    <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B771" s="58"/>
-    </row>
-    <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B772" s="58"/>
-    </row>
-    <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B773" s="58"/>
-    </row>
-    <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B774" s="58"/>
-    </row>
-    <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B775" s="58"/>
-    </row>
-    <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B776" s="58"/>
-    </row>
-    <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B777" s="58"/>
-    </row>
-    <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B778" s="58"/>
-    </row>
-    <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B779" s="58"/>
-    </row>
-    <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B780" s="58"/>
-    </row>
-    <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B781" s="58"/>
-    </row>
-    <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="58"/>
-    </row>
-    <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B783" s="58"/>
-    </row>
-    <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B784" s="58"/>
-    </row>
-    <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B785" s="58"/>
-    </row>
-    <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B786" s="58"/>
-    </row>
-    <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B787" s="58"/>
-    </row>
-    <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B788" s="58"/>
-    </row>
-    <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B789" s="58"/>
-    </row>
-    <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B790" s="58"/>
-    </row>
-    <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B791" s="58"/>
-    </row>
-    <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B792" s="58"/>
-    </row>
-    <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B793" s="58"/>
-    </row>
-    <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B794" s="58"/>
-    </row>
-    <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B795" s="58"/>
-    </row>
-    <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B796" s="58"/>
-    </row>
-    <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B797" s="58"/>
-    </row>
-    <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B798" s="58"/>
-    </row>
-    <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B799" s="58"/>
-    </row>
-    <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B800" s="58"/>
-    </row>
-    <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B801" s="58"/>
-    </row>
-    <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B802" s="58"/>
-    </row>
-    <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B803" s="58"/>
-    </row>
-    <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B804" s="58"/>
-    </row>
-    <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B805" s="58"/>
-    </row>
-    <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B806" s="58"/>
-    </row>
-    <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B807" s="58"/>
-    </row>
-    <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B808" s="58"/>
-    </row>
-    <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B809" s="58"/>
-    </row>
-    <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B810" s="58"/>
-    </row>
-    <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B811" s="58"/>
-    </row>
-    <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B812" s="58"/>
-    </row>
-    <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B813" s="58"/>
-    </row>
-    <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B814" s="58"/>
-    </row>
-    <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B815" s="58"/>
-    </row>
-    <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B816" s="58"/>
-    </row>
-    <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B817" s="58"/>
-    </row>
-    <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B818" s="58"/>
-    </row>
-    <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B819" s="58"/>
-    </row>
-    <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B820" s="58"/>
-    </row>
-    <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B821" s="58"/>
-    </row>
-    <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B822" s="58"/>
-    </row>
-    <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B823" s="58"/>
-    </row>
-    <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B824" s="58"/>
-    </row>
-    <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B825" s="58"/>
-    </row>
-    <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B826" s="58"/>
-    </row>
-    <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B827" s="58"/>
-    </row>
-    <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B828" s="58"/>
-    </row>
-    <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B829" s="58"/>
-    </row>
-    <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B830" s="58"/>
-    </row>
-    <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B831" s="58"/>
-    </row>
-    <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B832" s="58"/>
-    </row>
-    <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B833" s="58"/>
-    </row>
-    <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B834" s="58"/>
-    </row>
-    <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B835" s="58"/>
-    </row>
-    <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B836" s="58"/>
-    </row>
-    <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B837" s="58"/>
-    </row>
-    <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B838" s="58"/>
-    </row>
-    <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B839" s="58"/>
-    </row>
-    <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B840" s="58"/>
-    </row>
-    <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B841" s="58"/>
-    </row>
-    <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B842" s="58"/>
-    </row>
-    <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B843" s="58"/>
-    </row>
-    <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B844" s="58"/>
-    </row>
-    <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B845" s="58"/>
-    </row>
-    <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B846" s="58"/>
-    </row>
-    <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B847" s="58"/>
-    </row>
-    <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B848" s="58"/>
-    </row>
-    <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B849" s="58"/>
-    </row>
-    <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B850" s="58"/>
-    </row>
-    <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B851" s="58"/>
-    </row>
-    <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B852" s="58"/>
-    </row>
-    <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B853" s="58"/>
-    </row>
-    <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B854" s="58"/>
-    </row>
-    <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B855" s="58"/>
-    </row>
-    <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B856" s="58"/>
-    </row>
-    <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B857" s="58"/>
-    </row>
-    <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B858" s="58"/>
-    </row>
-    <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B859" s="58"/>
-    </row>
-    <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B860" s="58"/>
-    </row>
-    <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B861" s="58"/>
-    </row>
-    <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B862" s="58"/>
-    </row>
-    <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B863" s="58"/>
-    </row>
-    <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B864" s="58"/>
-    </row>
-    <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B865" s="58"/>
-    </row>
-    <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B866" s="58"/>
-    </row>
-    <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B867" s="58"/>
-    </row>
-    <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B868" s="58"/>
-    </row>
-    <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B869" s="58"/>
-    </row>
-    <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B870" s="58"/>
-    </row>
-    <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B871" s="58"/>
-    </row>
-    <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B872" s="58"/>
-    </row>
-    <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B873" s="58"/>
-    </row>
-    <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B874" s="58"/>
-    </row>
-    <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B875" s="58"/>
-    </row>
-    <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B876" s="58"/>
-    </row>
-    <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B877" s="58"/>
-    </row>
-    <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B878" s="58"/>
-    </row>
-    <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B879" s="58"/>
-    </row>
-    <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B880" s="58"/>
-    </row>
-    <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B881" s="58"/>
-    </row>
-    <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B882" s="58"/>
-    </row>
-    <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B883" s="58"/>
-    </row>
-    <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B884" s="58"/>
-    </row>
-    <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B885" s="58"/>
-    </row>
-    <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B886" s="58"/>
-    </row>
-    <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="58"/>
-    </row>
-    <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B888" s="58"/>
-    </row>
-    <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B889" s="58"/>
-    </row>
-    <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B890" s="58"/>
-    </row>
-    <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B891" s="58"/>
-    </row>
-    <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B892" s="58"/>
-    </row>
-    <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B893" s="58"/>
-    </row>
-    <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B894" s="58"/>
-    </row>
-    <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B895" s="58"/>
-    </row>
-    <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B896" s="58"/>
-    </row>
-    <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B897" s="58"/>
-    </row>
-    <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B898" s="58"/>
-    </row>
-    <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B899" s="58"/>
-    </row>
-    <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B900" s="58"/>
-    </row>
-    <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B901" s="58"/>
-    </row>
-    <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B902" s="58"/>
-    </row>
-    <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B903" s="58"/>
-    </row>
-    <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B904" s="58"/>
-    </row>
-    <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B905" s="58"/>
-    </row>
-    <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B906" s="58"/>
-    </row>
-    <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B907" s="58"/>
-    </row>
-    <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B908" s="58"/>
-    </row>
-    <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B909" s="58"/>
-    </row>
-    <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B910" s="58"/>
-    </row>
-    <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B911" s="58"/>
-    </row>
-    <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B912" s="58"/>
-    </row>
-    <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B913" s="58"/>
-    </row>
-    <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B914" s="58"/>
-    </row>
-    <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B915" s="58"/>
-    </row>
-    <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B916" s="58"/>
-    </row>
-    <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B917" s="58"/>
-    </row>
-    <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B918" s="58"/>
-    </row>
-    <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B919" s="58"/>
-    </row>
-    <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B920" s="58"/>
-    </row>
-    <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B921" s="58"/>
-    </row>
-    <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B922" s="58"/>
-    </row>
-    <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B923" s="58"/>
-    </row>
-    <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B924" s="58"/>
-    </row>
-    <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B925" s="58"/>
-    </row>
-    <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B926" s="58"/>
-    </row>
-    <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B927" s="58"/>
-    </row>
-    <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B928" s="58"/>
-    </row>
-    <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B929" s="58"/>
-    </row>
-    <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B930" s="58"/>
-    </row>
-    <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B931" s="58"/>
-    </row>
-    <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B932" s="58"/>
-    </row>
-    <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B933" s="58"/>
-    </row>
-    <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B934" s="58"/>
-    </row>
-    <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B935" s="58"/>
-    </row>
-    <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B936" s="58"/>
-    </row>
-    <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B937" s="58"/>
-    </row>
-    <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B938" s="58"/>
-    </row>
-    <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B939" s="58"/>
-    </row>
-    <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B940" s="58"/>
-    </row>
-    <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B941" s="58"/>
-    </row>
-    <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B942" s="58"/>
-    </row>
-    <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B943" s="58"/>
-    </row>
-    <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B944" s="58"/>
-    </row>
-    <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B945" s="58"/>
-    </row>
-    <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B946" s="58"/>
-    </row>
-    <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B947" s="58"/>
-    </row>
-    <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B948" s="58"/>
-    </row>
-    <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B949" s="58"/>
-    </row>
-    <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B950" s="58"/>
-    </row>
-    <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B951" s="58"/>
-    </row>
-    <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B952" s="58"/>
-    </row>
-    <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B953" s="58"/>
-    </row>
-    <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B954" s="58"/>
-    </row>
-    <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B955" s="58"/>
-    </row>
-    <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B956" s="58"/>
-    </row>
-    <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B957" s="58"/>
-    </row>
-    <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B958" s="58"/>
-    </row>
-    <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B959" s="58"/>
-    </row>
-    <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B960" s="58"/>
-    </row>
-    <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B961" s="58"/>
-    </row>
-    <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B962" s="58"/>
-    </row>
-    <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B963" s="58"/>
-    </row>
-    <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B964" s="58"/>
-    </row>
-    <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B965" s="58"/>
-    </row>
-    <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B966" s="58"/>
-    </row>
-    <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B967" s="58"/>
-    </row>
-    <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B968" s="58"/>
-    </row>
-    <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B969" s="58"/>
-    </row>
-    <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B970" s="58"/>
-    </row>
-    <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B971" s="58"/>
-    </row>
-    <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B972" s="58"/>
-    </row>
-    <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B973" s="58"/>
-    </row>
-    <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B974" s="58"/>
-    </row>
-    <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B975" s="58"/>
-    </row>
-    <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B976" s="58"/>
-    </row>
-    <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B977" s="58"/>
-    </row>
-    <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B978" s="58"/>
-    </row>
-    <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B979" s="58"/>
-    </row>
-    <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B980" s="58"/>
-    </row>
-    <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B981" s="58"/>
-    </row>
-    <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B982" s="58"/>
-    </row>
-    <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B983" s="58"/>
-    </row>
-    <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B984" s="58"/>
-    </row>
-    <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B985" s="58"/>
-    </row>
-    <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B986" s="58"/>
-    </row>
-    <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B987" s="58"/>
-    </row>
-    <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B988" s="58"/>
-    </row>
-    <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B989" s="58"/>
-    </row>
-    <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B990" s="58"/>
-    </row>
-    <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B991" s="58"/>
-    </row>
-    <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B992" s="58"/>
-    </row>
-    <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B993" s="58"/>
-    </row>
-    <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B994" s="58"/>
-    </row>
-    <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B995" s="58"/>
-    </row>
-    <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B996" s="58"/>
-    </row>
-    <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B997" s="58"/>
-    </row>
-    <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B998" s="58"/>
-    </row>
-    <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B999" s="58"/>
-    </row>
-    <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1000" s="58"/>
-    </row>
-    <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1001" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A24:Z25"/>
-    <mergeCell ref="A36:Z37"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6C661-1DC9-4757-AE25-6BF7B6BF2213}">
-  <dimension ref="A1:AC1029"/>
-  <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12973,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>282</v>
@@ -12991,1511 +8497,1014 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
+    <row r="5" spans="1:29" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>285</v>
+        <v>323</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>288</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>292</v>
+        <v>75</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>296</v>
+        <v>89</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>271</v>
+        <v>94</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>105</v>
+      <c r="C13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>113</v>
+      <c r="C15" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>117</v>
+      <c r="C16" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>123</v>
+      <c r="C17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>297</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
+    <row r="18" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D20" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6" t="s">
+      <c r="E21" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="20" t="s">
+    <row r="23" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="E23" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="F23" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="B26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="16"/>
-    </row>
-    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="16"/>
-    </row>
-    <row r="28" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D55" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
-        <v>28</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
-        <v>29</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
-        <v>30</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
-        <v>31</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
-        <v>32</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18">
-        <v>33</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
-        <v>34</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="64" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="1:29" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="21"/>
-    </row>
-    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="34"/>
-      <c r="AC67" s="21"/>
-    </row>
-    <row r="68" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
-        <v>1</v>
-      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+    </row>
+    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="19"/>
+    </row>
+    <row r="67" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+    </row>
+    <row r="68" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -14525,10 +9534,7 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
     </row>
-    <row r="69" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>2</v>
-      </c>
+    <row r="69" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -14558,10 +9564,7 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
     </row>
-    <row r="70" spans="1:29" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>3</v>
-      </c>
+    <row r="70" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -14591,10 +9594,7 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
     </row>
-    <row r="71" spans="1:29" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
-        <v>4</v>
-      </c>
+    <row r="71" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -14625,9 +9625,6 @@
       <c r="AC71" s="6"/>
     </row>
     <row r="72" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>5</v>
-      </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -14657,38 +9654,8 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
     </row>
-    <row r="73" spans="1:29" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
-        <v>6</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="6"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
+    <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="19"/>
@@ -15257,8 +10224,8 @@
     <row r="262" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="19"/>
     </row>
-    <row r="263" spans="3:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C263" s="19"/>
+    <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C263" s="14"/>
     </row>
     <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="14"/>
@@ -15287,24 +10254,22 @@
     <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="14"/>
     </row>
-    <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C273" s="14"/>
-    </row>
-    <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16045,16 +11010,12 @@
     <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A2:AB3"/>
-    <mergeCell ref="A26:AB27"/>
-    <mergeCell ref="A66:AB67"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>